--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43863</v>
+      </c>
+      <c r="E7" s="2">
         <v>43772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43401</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43310</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43219</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43128</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43037</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42946</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42764</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>259600</v>
+      </c>
+      <c r="E8" s="3">
         <v>119800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>122000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>114200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>250500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>106700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>110700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>217800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>83700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>86200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>83700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>174700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>122600</v>
+      </c>
+      <c r="E9" s="3">
         <v>54400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>57200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>53300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>119300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>101800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>35000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>77900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E10" s="3">
         <v>65400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>64800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>60900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>131200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>61000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>62300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>55900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>116000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>48900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>48700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>96800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,22 +1033,25 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
       </c>
       <c r="F15" s="3">
+        <v>500</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1039,8 +1062,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>226500</v>
+      </c>
+      <c r="E17" s="3">
         <v>118400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>118200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>123900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>220400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>109300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>188300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>84300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>82900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>151800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,43 +1211,44 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1222,184 +1256,199 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E21" s="3">
         <v>7900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>34700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>32000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>800</v>
       </c>
       <c r="K22" s="3">
         <v>800</v>
       </c>
       <c r="L22" s="3">
+        <v>800</v>
+      </c>
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,11 +1661,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>1500</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,43 +1773,46 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1750,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43863</v>
+      </c>
+      <c r="E38" s="2">
         <v>43772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43401</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43310</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43219</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43128</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43037</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42946</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42764</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,195 +2145,210 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
         <v>6900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E44" s="3">
         <v>183100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>114800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>104300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>97700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>131400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>102400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>98000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>89500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>129500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>84700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>75700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>70400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E45" s="3">
         <v>12100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E46" s="3">
         <v>204300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>137500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>126100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>118200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>150200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>116600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>109600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>101800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>145400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>96100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>95900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>101200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E47" s="3">
         <v>6500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>6300</v>
       </c>
       <c r="G47" s="3">
         <v>6300</v>
@@ -2263,8 +2368,8 @@
       <c r="L47" s="3">
         <v>6300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="M47" s="3">
+        <v>6300</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2275,69 +2380,75 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>304200</v>
+      </c>
+      <c r="E48" s="3">
         <v>303800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>284400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>282200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>334200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>165900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>144800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>129200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>109700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>98200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>75700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>700</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
       </c>
       <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>474100</v>
+      </c>
+      <c r="E54" s="3">
         <v>518100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>434100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>418900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>295300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>324500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>270400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>249000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>223100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>252900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>181700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>160000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>156000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,260 +2749,276 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E57" s="3">
         <v>55400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E59" s="3">
         <v>38000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E60" s="3">
         <v>95500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>71400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>52600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>65200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>69600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>58800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>37800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>104500</v>
+      </c>
+      <c r="E61" s="3">
         <v>156500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>99200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>77500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>67900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>111200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>76900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>70000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E62" s="3">
         <v>113100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>110200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>127900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5500</v>
       </c>
       <c r="I62" s="3">
         <v>5500</v>
       </c>
       <c r="J62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K62" s="3">
         <v>5400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>3700</v>
       </c>
       <c r="N62" s="3">
         <v>3700</v>
@@ -2881,10 +3027,13 @@
         <v>3700</v>
       </c>
       <c r="P62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>295800</v>
+      </c>
+      <c r="E66" s="3">
         <v>364600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>280400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>267800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>135000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>185300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>128500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>113900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>136800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>65300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E72" s="3">
         <v>63200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>63000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>61100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>70600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>50000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>46700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>25100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>24700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>178300</v>
+      </c>
+      <c r="E76" s="3">
         <v>153500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>153700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>151100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>160300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>139200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>141900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>135100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>136100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>116100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>116400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>111900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>111200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43863</v>
+      </c>
+      <c r="E80" s="2">
         <v>43772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43401</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43310</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43219</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43128</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43037</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42946</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42764</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4400</v>
       </c>
       <c r="G83" s="3">
         <v>4400</v>
       </c>
       <c r="H83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I83" s="3">
         <v>3100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-39600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>54600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>64800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>47000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E100" s="3">
         <v>45200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-47300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>29500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-51800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>39300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43954</v>
+      </c>
+      <c r="E7" s="2">
         <v>43863</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43590</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43499</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43401</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43310</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43219</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43128</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43037</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42946</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42764</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E8" s="3">
         <v>259600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>119800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>122000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>114200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>250500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>106700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>110700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>217800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>83700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>86200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>83700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>174700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E9" s="3">
         <v>122600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>54400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>57200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>53300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>119300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>101800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>37300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>35000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>77900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E10" s="3">
         <v>137000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>65400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>131200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>62300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>55900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>116000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>48900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>48700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>96800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,31 +1006,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1036,25 +1056,28 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>700</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>500</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
       </c>
       <c r="G15" s="3">
+        <v>500</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1065,8 +1088,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>128900</v>
+      </c>
+      <c r="E17" s="3">
         <v>226500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>118400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>118200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>123900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>220400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>109300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>188300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>84300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>78800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>82900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>151800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E18" s="3">
         <v>33100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>29500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,37 +1255,37 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1259,196 +1293,211 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E21" s="3">
         <v>39300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>34700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>32000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>800</v>
       </c>
       <c r="L22" s="3">
         <v>800</v>
       </c>
       <c r="M22" s="3">
+        <v>800</v>
+      </c>
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E23" s="3">
         <v>31800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>7600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E26" s="3">
         <v>24200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E27" s="3">
         <v>24400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1664,11 +1725,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>1500</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,37 +1855,37 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E33" s="3">
         <v>24400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E35" s="3">
         <v>24400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43954</v>
+      </c>
+      <c r="E38" s="2">
         <v>43863</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43772</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43590</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43499</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43401</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43310</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43219</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43128</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43037</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42946</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42764</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,210 +2238,225 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E44" s="3">
         <v>147800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>183100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>114800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>104300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>97700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>131400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>102400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>98000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>89500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>129500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>84700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>75700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>70400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E45" s="3">
         <v>10700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E46" s="3">
         <v>162200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>204300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>137500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>126100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>118200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>150200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>116600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>109600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>101800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>145400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>96100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>95900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>101200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E47" s="3">
         <v>6400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>6300</v>
       </c>
       <c r="H47" s="3">
         <v>6300</v>
@@ -2371,8 +2476,8 @@
       <c r="M47" s="3">
         <v>6300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>6300</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2383,75 +2488,81 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>301100</v>
+      </c>
+      <c r="E48" s="3">
         <v>304200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>303800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>284400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>282200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>334200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>165900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>144800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>129200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>109700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>98200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>75700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>62500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>52400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>700</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E49" s="3">
-        <v>700</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
       </c>
       <c r="G49" s="3">
+        <v>700</v>
+      </c>
+      <c r="H49" s="3">
         <v>400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,46 +2700,49 @@
         <v>1200</v>
       </c>
       <c r="E52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>505600</v>
+      </c>
+      <c r="E54" s="3">
         <v>474100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>518100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>434100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>418900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>295300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>324500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>270400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>249000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>223100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>252900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>181700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>160000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>156000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E57" s="3">
         <v>33100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,222 +2940,234 @@
         <v>2200</v>
       </c>
       <c r="E58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E59" s="3">
         <v>43600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>38000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>30700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E60" s="3">
         <v>78800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>95500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>71400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>52600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>65200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>69600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>58800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>37800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E61" s="3">
         <v>104500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>156500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>99200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>77500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>67900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>111200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>76900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>70000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E62" s="3">
         <v>114600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>113100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>110200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>127900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>5500</v>
       </c>
       <c r="J62" s="3">
         <v>5500</v>
       </c>
       <c r="K62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L62" s="3">
         <v>5400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>3700</v>
       </c>
       <c r="O62" s="3">
         <v>3700</v>
@@ -3030,10 +3176,13 @@
         <v>3700</v>
       </c>
       <c r="Q62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>342600</v>
+      </c>
+      <c r="E66" s="3">
         <v>295800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>364600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>280400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>267800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>135000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>185300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>128500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>113900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>87000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>136800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>44800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E72" s="3">
         <v>87600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>63200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>63000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>61100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>70600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>50000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>48100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>24700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>163100</v>
+      </c>
+      <c r="E76" s="3">
         <v>178300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>153500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>153700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>151100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>160300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>139200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>141900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>135100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>136100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>116100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>116400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>111900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>111200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43954</v>
+      </c>
+      <c r="E80" s="2">
         <v>43863</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43772</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43590</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43499</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43401</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43310</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43219</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43128</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43037</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42946</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42764</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E81" s="3">
         <v>24400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E83" s="3">
         <v>6100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4400</v>
       </c>
       <c r="H83" s="3">
         <v>4400</v>
       </c>
       <c r="I83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J83" s="3">
         <v>3100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E89" s="3">
         <v>54300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-39600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>54600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>64800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>47000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-51500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>45200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-47300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>29500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>22000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-51800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>39300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>23900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44045</v>
+      </c>
+      <c r="E7" s="2">
         <v>43954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43401</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43310</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43219</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43128</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43037</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42946</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42764</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E8" s="3">
         <v>109900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>259600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>119800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>114200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>250500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>106700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>110700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>217800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>83700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>86200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>83700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>174700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E9" s="3">
         <v>57600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>122600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>54400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>57200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>53300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>119300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>45700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>101800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>37300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>77900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E10" s="3">
         <v>52300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>137000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>65400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>60900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>131200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>61000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>55900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>116000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>48900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>48700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>96800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,16 +1026,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1035,8 +1055,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1059,28 +1079,31 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>500</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
       </c>
       <c r="H15" s="3">
+        <v>500</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1091,8 +1114,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E17" s="3">
         <v>128900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>226500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>118400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>118200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>123900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>220400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>109300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>188300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>84300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>78800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>82900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>151800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>33100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>29500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,49 +1279,50 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1296,208 +1330,223 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-12200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>39300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>34700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>32000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>800</v>
       </c>
       <c r="M22" s="3">
         <v>800</v>
       </c>
       <c r="N22" s="3">
+        <v>800</v>
+      </c>
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>31800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>28000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>20500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1728,11 +1789,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>1500</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,49 +1913,52 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -1896,58 +1966,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>20600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>20600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44045</v>
+      </c>
+      <c r="E38" s="2">
         <v>43954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43401</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43310</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43219</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43128</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43037</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42946</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42764</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,225 +2331,240 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3500</v>
+        <v>7600</v>
       </c>
       <c r="E43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
+        <v>600</v>
+      </c>
+      <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P43" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>400</v>
+      </c>
+      <c r="S43" s="3">
         <v>3100</v>
       </c>
-      <c r="F43" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>8700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O43" s="3">
-        <v>500</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>400</v>
-      </c>
-      <c r="R43" s="3">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>167600</v>
+      </c>
+      <c r="E44" s="3">
         <v>175000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>147800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>183100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>114800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>104300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>97700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>131400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>102400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>98000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>89500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>129500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>84700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>75700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>70400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9600</v>
+        <v>7600</v>
       </c>
       <c r="E45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G45" s="3">
         <v>10700</v>
       </c>
-      <c r="F45" s="3">
-        <v>12100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>12800</v>
-      </c>
       <c r="H45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I45" s="3">
         <v>12200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>201800</v>
+      </c>
+      <c r="E46" s="3">
         <v>197000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>162200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>204300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>137500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>126100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>118200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>150200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>116600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>109600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>101800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>145400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>96100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>95900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>101200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>6300</v>
       </c>
       <c r="I47" s="3">
         <v>6300</v>
@@ -2479,8 +2584,8 @@
       <c r="N47" s="3">
         <v>6300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>6300</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -2491,81 +2596,87 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>296600</v>
+      </c>
+      <c r="E48" s="3">
         <v>301100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>304200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>303800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>284400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>282200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>334200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>165900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>144800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>129200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>109700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>98200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>75700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>62500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>52400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
+      <c r="E49" s="3">
+        <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
       </c>
       <c r="H49" s="3">
+        <v>700</v>
+      </c>
+      <c r="I49" s="3">
         <v>400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
         <v>1200</v>
       </c>
       <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>506200</v>
+      </c>
+      <c r="E54" s="3">
         <v>505600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>474100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>518100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>434100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>418900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>295300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>324500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>270400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>249000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>223100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>252900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>181700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>160000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>156000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,296 +3011,312 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E57" s="3">
         <v>34400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2200</v>
+        <v>4800</v>
       </c>
       <c r="E58" s="3">
         <v>2200</v>
       </c>
       <c r="F58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>700</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
       </c>
       <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E59" s="3">
         <v>46000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>38000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E60" s="3">
         <v>82600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>95500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>71400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>62700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>52600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>65200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>69600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>50300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>58800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>37800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>36700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>141400</v>
+      </c>
+      <c r="E61" s="3">
         <v>149800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>104500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>156500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>99200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>77500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>67900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>111200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>76900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>70000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E62" s="3">
         <v>112400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>114600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>113100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>110200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>127900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>5500</v>
       </c>
       <c r="K62" s="3">
         <v>5500</v>
       </c>
       <c r="L62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M62" s="3">
         <v>5400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>3700</v>
       </c>
       <c r="P62" s="3">
         <v>3700</v>
@@ -3179,10 +3325,13 @@
         <v>3700</v>
       </c>
       <c r="R62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>336500</v>
+      </c>
+      <c r="E66" s="3">
         <v>342600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>295800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>364600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>280400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>267800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>135000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>185300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>128500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>113900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>136800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>65300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>44800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E72" s="3">
         <v>72500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>87600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>63200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>63000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>61100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>70600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>48100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>29400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>24700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E76" s="3">
         <v>163100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>178300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>153500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>153700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>151100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>160300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>139200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>141900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>135100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>136100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>116100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>116400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>111900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>111200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44045</v>
+      </c>
+      <c r="E80" s="2">
         <v>43954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43401</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43310</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43219</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43128</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43037</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42946</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42764</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>20600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E83" s="3">
         <v>6700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4400</v>
       </c>
       <c r="I83" s="3">
         <v>4400</v>
       </c>
       <c r="J83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K83" s="3">
         <v>3100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-33500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>54300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-39600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>54600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>64800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>47000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E100" s="3">
         <v>44700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-51500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>45200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-47300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>29500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>22000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-51800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>39300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>16400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E102" s="3">
         <v>7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>23900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44136</v>
+      </c>
+      <c r="E7" s="2">
         <v>44045</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43954</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43863</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43772</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43590</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43499</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43401</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43310</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43219</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43128</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43037</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42946</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42764</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E8" s="3">
         <v>137400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>109900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>259600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>119800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>122000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>114200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>250500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>106700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>110700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>217800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>83700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>86200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>83700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>174700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E9" s="3">
         <v>64900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>57600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>122600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>54400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>57200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>53300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>119300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>101800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>37300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>35000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>77900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E10" s="3">
         <v>72500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>52300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>137000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>65400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>64800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>60900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>131200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>55900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>116000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>48900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>48700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>96800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1058,8 +1077,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1082,31 +1101,34 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
         <v>900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>500</v>
       </c>
       <c r="H15" s="3">
         <v>500</v>
       </c>
       <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1117,8 +1139,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E17" s="3">
         <v>127600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>128900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>226500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>118400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>118200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>123900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>220400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>109300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>188300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>84300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>78800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>82900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>151800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>9800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>33100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>30100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>29500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,52 +1312,53 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1333,220 +1366,235 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E21" s="3">
         <v>16100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>39300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>34700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>32000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>800</v>
       </c>
       <c r="N22" s="3">
         <v>800</v>
       </c>
       <c r="O22" s="3">
+        <v>800</v>
+      </c>
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>7800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>31800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>28000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>5900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>1500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,52 +1982,55 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -1969,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44136</v>
+      </c>
+      <c r="E38" s="2">
         <v>44045</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43954</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43863</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43772</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43590</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43499</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43401</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43310</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43219</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43128</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43037</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42946</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42764</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E41" s="3">
         <v>19000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>213400</v>
+      </c>
+      <c r="E44" s="3">
         <v>167600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>175000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>147800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>183100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>114800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>104300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>97700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>131400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>102400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>98000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>89500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>129500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>84700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>75700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>70400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
         <v>7600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>242900</v>
+      </c>
+      <c r="E46" s="3">
         <v>201800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>197000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>162200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>204300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>137500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>126100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>118200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>150200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>116600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>109600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>101800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>145400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>96100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>95900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>101200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2555,19 +2659,19 @@
         <v>6000</v>
       </c>
       <c r="E47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F47" s="3">
         <v>5700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>6300</v>
       </c>
       <c r="J47" s="3">
         <v>6300</v>
@@ -2587,8 +2691,8 @@
       <c r="O47" s="3">
         <v>6300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
+      <c r="P47" s="3">
+        <v>6300</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -2599,61 +2703,67 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>304600</v>
+      </c>
+      <c r="E48" s="3">
         <v>296600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>301100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>304200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>303800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>284400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>282200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>334200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>165900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>144800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>129200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>109700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>98200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>75700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>62500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>52400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2664,22 +2774,22 @@
         <v>700</v>
       </c>
       <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3">
         <v>900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
       </c>
       <c r="I49" s="3">
+        <v>700</v>
+      </c>
+      <c r="J49" s="3">
         <v>400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>400</v>
       </c>
       <c r="L49" s="3">
         <v>400</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>554700</v>
+      </c>
+      <c r="E54" s="3">
         <v>506200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>505600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>474100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>518100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>434100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>418900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>295300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>324500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>270400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>249000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>223100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>252900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>181700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>160000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>156000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,314 +3141,330 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E57" s="3">
         <v>40100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>55400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E58" s="3">
         <v>4800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2200</v>
       </c>
       <c r="F58" s="3">
         <v>2200</v>
       </c>
       <c r="G58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>700</v>
       </c>
       <c r="R58" s="3">
         <v>700</v>
       </c>
       <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E59" s="3">
         <v>39200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>38000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>35200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>25000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E60" s="3">
         <v>84100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>82600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>95500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>52600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>65200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>69600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>58800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>37800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>36700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>160700</v>
+      </c>
+      <c r="E61" s="3">
         <v>141400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>149800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>104500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>156500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>99200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>77500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>67900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>111200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>76900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>70000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E62" s="3">
         <v>113200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>112400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>114600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>113100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>110200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>127900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>5500</v>
       </c>
       <c r="L62" s="3">
         <v>5500</v>
       </c>
       <c r="M62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N62" s="3">
         <v>5400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>3700</v>
       </c>
       <c r="Q62" s="3">
         <v>3700</v>
@@ -3328,10 +3473,13 @@
         <v>3700</v>
       </c>
       <c r="S62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>383700</v>
+      </c>
+      <c r="E66" s="3">
         <v>336500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>342600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>295800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>364600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>280400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>267800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>135000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>185300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>128500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>113900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>136800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>65300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>44800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E72" s="3">
         <v>78400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>72500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>87600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>63200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>63000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>61100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>70600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>48100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>29400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>171100</v>
+      </c>
+      <c r="E76" s="3">
         <v>169700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>163100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>178300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>153500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>153700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>151100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>160300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>139200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>141900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>135100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>136100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>116100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>116400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>111900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>111200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44136</v>
+      </c>
+      <c r="E80" s="2">
         <v>44045</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43954</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43863</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43772</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43590</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43499</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43401</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43310</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43219</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43128</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43037</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42946</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42764</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>20600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4400</v>
       </c>
       <c r="J83" s="3">
         <v>4400</v>
       </c>
       <c r="K83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L83" s="3">
         <v>3100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E89" s="3">
         <v>20700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33500</v>
       </c>
-      <c r="F89" s="3">
-        <v>54300</v>
-      </c>
       <c r="G89" s="3">
+        <v>56000</v>
+      </c>
+      <c r="H89" s="3">
         <v>-39600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>54600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>64800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-22800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>47000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>44700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-51500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>45200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>22400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-47300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>29500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>22000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>39300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E102" s="3">
         <v>9900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-3400</v>
-      </c>
       <c r="G102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>23900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44136</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44045</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43954</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43863</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43772</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43681</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43590</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43499</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43401</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43310</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43219</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43128</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43037</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42946</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42764</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E8" s="3">
         <v>135500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>137400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>109900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>259600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>119800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>122000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>114200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>250500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>106700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>110700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>217800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>83700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>86200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>83700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>174700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E9" s="3">
         <v>64500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>64900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>57600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>122600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>54400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>57200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>53300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>119300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>45700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>44300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>101800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>37300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>35000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>77900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>135700</v>
+      </c>
+      <c r="E10" s="3">
         <v>71000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>72500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>52300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>137000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>65400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>64800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>60900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>131200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>116000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>47400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>48900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>48700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>96800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,11 +1079,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>1600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1080,8 +1100,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,25 +1136,25 @@
         <v>800</v>
       </c>
       <c r="E15" s="3">
+        <v>800</v>
+      </c>
+      <c r="F15" s="3">
         <v>900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>500</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
       </c>
       <c r="J15" s="3">
+        <v>500</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1142,8 +1165,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E17" s="3">
         <v>132700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>127600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>128900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>226500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>118400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>118200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>123900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>220400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>109300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>188300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>84300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>78800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>82900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>151800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E18" s="3">
         <v>2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>33100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,46 +1356,46 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1369,232 +1403,247 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E21" s="3">
         <v>10900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>16100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>39300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>34700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>32000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>800</v>
       </c>
       <c r="O22" s="3">
         <v>800</v>
       </c>
       <c r="P22" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>31800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1855,11 +1916,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>1500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,46 +2064,46 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2041,64 +2111,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44136</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44045</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43954</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43863</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43772</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43681</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43590</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43499</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43401</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43310</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43219</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43128</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43037</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42946</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42764</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E41" s="3">
         <v>12800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>2200</v>
       </c>
       <c r="I41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,255 +2516,270 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E43" s="3">
         <v>7000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5400</v>
       </c>
-      <c r="G43" s="3">
-        <v>5100</v>
-      </c>
       <c r="H43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I43" s="3">
         <v>8200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E44" s="3">
         <v>213400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>167600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>175000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>147800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>183100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>114800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>104300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>97700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>131400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>102400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>98000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>89500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>129500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>84700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>75700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>70400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>210300</v>
+      </c>
+      <c r="E46" s="3">
         <v>242900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>201800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>197000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>162200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>204300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>137500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>126100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>118200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>150200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>116600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>109600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>101800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>145400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>96100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>95900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>101200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E47" s="3">
         <v>6000</v>
       </c>
       <c r="F47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G47" s="3">
         <v>5700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6200</v>
-      </c>
-      <c r="J47" s="3">
-        <v>6300</v>
       </c>
       <c r="K47" s="3">
         <v>6300</v>
@@ -2694,8 +2799,8 @@
       <c r="P47" s="3">
         <v>6300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="Q47" s="3">
+        <v>6300</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -2706,64 +2811,70 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>295200</v>
+      </c>
+      <c r="E48" s="3">
         <v>304600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>296600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>301100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>304200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>303800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>284400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>282200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>334200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>165900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>144800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>129200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>109700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>98200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>75700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>62500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>52400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2777,22 +2888,22 @@
         <v>700</v>
       </c>
       <c r="G49" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="H49" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="I49" s="3">
         <v>700</v>
       </c>
       <c r="J49" s="3">
+        <v>700</v>
+      </c>
+      <c r="K49" s="3">
         <v>400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>400</v>
       </c>
       <c r="M49" s="3">
         <v>400</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
-        <v>300</v>
-      </c>
       <c r="H52" s="3">
+        <v>600</v>
+      </c>
+      <c r="I52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>515600</v>
+      </c>
+      <c r="E54" s="3">
         <v>554700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>506200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>505600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>474100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>518100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>434100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>418900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>295300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>324500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>270400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>249000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>223100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>252900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>181700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>160000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>156000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,332 +3272,348 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E57" s="3">
         <v>57100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>55400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>30100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E58" s="3">
         <v>5700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2200</v>
       </c>
       <c r="G58" s="3">
         <v>2200</v>
       </c>
       <c r="H58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>700</v>
       </c>
       <c r="S58" s="3">
         <v>700</v>
       </c>
       <c r="T58" s="3">
+        <v>700</v>
+      </c>
+      <c r="U58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E59" s="3">
         <v>43500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46000</v>
       </c>
-      <c r="G59" s="3">
-        <v>43600</v>
-      </c>
       <c r="H59" s="3">
+        <v>54500</v>
+      </c>
+      <c r="I59" s="3">
         <v>38000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>35200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>25300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>25000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E60" s="3">
         <v>106300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>84100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>82600</v>
       </c>
-      <c r="G60" s="3">
-        <v>78800</v>
-      </c>
       <c r="H60" s="3">
+        <v>79800</v>
+      </c>
+      <c r="I60" s="3">
         <v>95500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>62700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>65200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>69600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>58800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>37800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>36700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>35100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E61" s="3">
         <v>160700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>141400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>149800</v>
       </c>
-      <c r="G61" s="3">
-        <v>104500</v>
-      </c>
       <c r="H61" s="3">
+        <v>103500</v>
+      </c>
+      <c r="I61" s="3">
         <v>156500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>99200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>77500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>67900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>111200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>76900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>70000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E62" s="3">
         <v>119000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>113200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>112400</v>
       </c>
-      <c r="G62" s="3">
-        <v>114600</v>
-      </c>
       <c r="H62" s="3">
+        <v>123100</v>
+      </c>
+      <c r="I62" s="3">
         <v>113100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>110200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>127900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>5500</v>
       </c>
       <c r="M62" s="3">
         <v>5500</v>
       </c>
       <c r="N62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O62" s="3">
         <v>5400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>3700</v>
       </c>
       <c r="R62" s="3">
         <v>3700</v>
@@ -3476,10 +3622,13 @@
         <v>3700</v>
       </c>
       <c r="T62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>322100</v>
+      </c>
+      <c r="E66" s="3">
         <v>383700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>336500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>342600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>295800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>364600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>280400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>267800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>135000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>185300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>128500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>113900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>87000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>136800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>65300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>44800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>101200</v>
+      </c>
+      <c r="E72" s="3">
         <v>79300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>78400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>72500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>87600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>63200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>63000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>61100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>70600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>48100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>29400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>25100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>24700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E76" s="3">
         <v>171100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>169700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>163100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>178300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>153500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>153700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>151100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>160300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>139200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>141900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>135100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>136100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>116100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>116400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>111900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>111200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44136</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44045</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43954</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43863</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43772</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43681</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43590</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43499</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43401</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43310</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43219</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43128</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43037</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42946</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42764</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E83" s="3">
         <v>7900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4400</v>
       </c>
       <c r="K83" s="3">
         <v>4400</v>
       </c>
       <c r="L83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M83" s="3">
         <v>3100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>56000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-39600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>54600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>64800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>47000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E100" s="3">
         <v>11800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>44700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-51500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>45200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-47300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>29500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>14400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>22000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-51800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>39300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>23900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44318</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44136</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44045</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43954</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43863</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43772</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43681</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43590</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43499</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43401</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43310</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43219</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43128</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43037</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42946</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42764</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E8" s="3">
         <v>256000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>135500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>137400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>109900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>259600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>119800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>122000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>114200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>250500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>106700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>110700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>217800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>83700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>86200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>83700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>174700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E9" s="3">
         <v>120300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>64500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>64900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>57600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>122600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>54400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>57200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>119300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>48400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>101800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>37300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>35000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>77900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E10" s="3">
         <v>135700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>71000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>72500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>52300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>137000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>65400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>64800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>131200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>55900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>116000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>47400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>48900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>48700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>96800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,11 +1102,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>1600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1103,8 +1123,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,25 +1162,25 @@
         <v>800</v>
       </c>
       <c r="F15" s="3">
+        <v>800</v>
+      </c>
+      <c r="G15" s="3">
         <v>900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>500</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
       </c>
       <c r="K15" s="3">
+        <v>500</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1168,8 +1191,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E17" s="3">
         <v>225400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>127600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>128900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>226500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>118400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>118200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>123900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>220400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>109300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>188300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>84300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>78800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>82900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>151800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>30600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>33100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>22900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,58 +1380,59 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1406,244 +1440,259 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E21" s="3">
         <v>38000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>16100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>39300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>34700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>32000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>800</v>
       </c>
       <c r="P22" s="3">
         <v>800</v>
       </c>
       <c r="Q22" s="3">
+        <v>800</v>
+      </c>
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>29200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>31800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>29000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>7500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>21800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>21800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,31 +1936,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1919,11 +1980,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,58 +2122,61 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2114,67 +2184,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>21800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>21800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44318</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44136</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44045</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43954</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43863</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43772</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43681</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43590</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43499</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43401</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43310</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43219</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43128</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43037</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42946</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42764</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E41" s="3">
         <v>47200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8900</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2200</v>
       </c>
       <c r="I41" s="3">
         <v>2200</v>
       </c>
       <c r="J41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,270 +2609,285 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
         <v>5300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E44" s="3">
         <v>149100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>213400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>167600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>175000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>147800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>183100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>114800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>104300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>97700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>131400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>102400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>98000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>89500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>129500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>84700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>75700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>70400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
         <v>8700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E46" s="3">
         <v>210300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>242900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>201800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>197000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>162200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>204300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>137500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>126100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>118200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>150200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>116600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>109600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>101800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>145400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>96100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>95900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>101200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E47" s="3">
         <v>6100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>6000</v>
       </c>
       <c r="F47" s="3">
         <v>6000</v>
       </c>
       <c r="G47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H47" s="3">
         <v>5700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>6300</v>
       </c>
       <c r="L47" s="3">
         <v>6300</v>
@@ -2802,8 +2907,8 @@
       <c r="Q47" s="3">
         <v>6300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
+      <c r="R47" s="3">
+        <v>6300</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -2814,67 +2919,73 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>287200</v>
+      </c>
+      <c r="E48" s="3">
         <v>295200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>304600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>296600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>301100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>304200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>303800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>284400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>282200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>334200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>165900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>144800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>129200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>109700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>98200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>75700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>62500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>52400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2891,22 +3002,22 @@
         <v>700</v>
       </c>
       <c r="H49" s="3">
+        <v>700</v>
+      </c>
+      <c r="I49" s="3">
         <v>1700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>700</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
       </c>
       <c r="K49" s="3">
+        <v>700</v>
+      </c>
+      <c r="L49" s="3">
         <v>400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>400</v>
       </c>
       <c r="N49" s="3">
         <v>400</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E52" s="3">
         <v>3300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>482200</v>
+      </c>
+      <c r="E54" s="3">
         <v>515600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>554700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>506200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>505600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>474100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>518100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>434100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>418900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>295300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>324500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>270400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>249000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>223100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>252900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>181700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>160000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>156000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,350 +3403,366 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E57" s="3">
         <v>33600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E58" s="3">
         <v>5800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>700</v>
       </c>
       <c r="T58" s="3">
         <v>700</v>
       </c>
       <c r="U58" s="3">
+        <v>700</v>
+      </c>
+      <c r="V58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E59" s="3">
         <v>56300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>38000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>32900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>25300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>25000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E60" s="3">
         <v>95700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>106300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>84100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>82600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>79800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>95500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>65200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>69600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>50300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>58800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>37800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>36700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>35100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E61" s="3">
         <v>116300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>160700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>141400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>149800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>103500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>156500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>99200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>77500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>67900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>111200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>76900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>70000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E62" s="3">
         <v>112500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>119000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>113200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>112400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>123100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>113100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>110200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>127900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>5500</v>
       </c>
       <c r="N62" s="3">
         <v>5500</v>
       </c>
       <c r="O62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="P62" s="3">
         <v>5400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4800</v>
-      </c>
-      <c r="R62" s="3">
-        <v>3700</v>
       </c>
       <c r="S62" s="3">
         <v>3700</v>
@@ -3625,10 +3771,13 @@
         <v>3700</v>
       </c>
       <c r="U62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>287800</v>
+      </c>
+      <c r="E66" s="3">
         <v>322100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>383700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>336500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>342600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>295800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>364600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>280400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>267800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>135000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>185300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>128500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>113900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>87000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>136800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>65300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>44800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E72" s="3">
         <v>101200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>79300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>78400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>72500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>87600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>63200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>63000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>61100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>70600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>48100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>29400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>25100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>24700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>194400</v>
+      </c>
+      <c r="E76" s="3">
         <v>193500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>171100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>169700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>163100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>178300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>153500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>153700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>151100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>160300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>139200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>141900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>135100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>136100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>116100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>116400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>111900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>111200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44318</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44136</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44045</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43954</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43863</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43772</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43681</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43590</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43499</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43401</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43310</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43219</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43128</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43037</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42946</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42764</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>21800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,58 +4830,61 @@
         <v>7300</v>
       </c>
       <c r="E83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>4400</v>
       </c>
       <c r="L83" s="3">
         <v>4400</v>
       </c>
       <c r="M83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N83" s="3">
         <v>3100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E89" s="3">
         <v>79400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-33500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>56000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-39600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>54600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>64800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-22800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>47000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-44300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>44700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-51500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>45200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>22400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-47300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>29500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>14400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>22000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-51800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>39300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>16400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E102" s="3">
         <v>34400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>23900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E7" s="2">
         <v>44318</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44136</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44045</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43954</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43863</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43772</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43681</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43590</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43499</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43401</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43310</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43219</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43128</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43037</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42946</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42764</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E8" s="3">
         <v>133400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>256000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>135500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>137400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>109900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>259600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>119800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>122000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>114200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>250500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>106700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>110700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>217800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>83700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>86200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>83700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>174700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E9" s="3">
         <v>66900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>120300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>64500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>64900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>57600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>122600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>54400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>57200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>119300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>45700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>48400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>44300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>101800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>36300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>37300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>35000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>77900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E10" s="3">
         <v>66500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>135700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>71000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>72500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>52300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>137000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>65400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>64800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>131200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>61000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>62300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>55900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>116000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>47400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>48900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>48700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>96800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,11 +1125,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>1600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1126,8 +1146,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1165,25 +1188,25 @@
         <v>800</v>
       </c>
       <c r="G15" s="3">
+        <v>800</v>
+      </c>
+      <c r="H15" s="3">
         <v>900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
       </c>
       <c r="L15" s="3">
+        <v>500</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1194,8 +1217,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E17" s="3">
         <v>131500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>225400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>128900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>226500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>118400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>118200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>123900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>220400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>109300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>188300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>84300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>78800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>82900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>151800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>30600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>33100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>22900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,61 +1414,62 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1443,256 +1477,271 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E21" s="3">
         <v>9200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>38000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>39300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>34700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>24400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>800</v>
       </c>
       <c r="Q22" s="3">
         <v>800</v>
       </c>
       <c r="R22" s="3">
+        <v>800</v>
+      </c>
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>31800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>29000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1965,8 +2026,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1983,11 +2044,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>1500</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,61 +2192,64 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2187,70 +2257,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E38" s="2">
         <v>44318</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44136</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44045</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43954</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43863</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43772</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43681</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43590</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43499</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43401</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43310</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43219</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43128</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43037</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42946</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42764</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E41" s="3">
         <v>26100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2200</v>
       </c>
       <c r="J41" s="3">
         <v>2200</v>
       </c>
       <c r="K41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,285 +2702,300 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E44" s="3">
         <v>144200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>149100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>213400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>167600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>175000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>147800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>183100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>114800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>104300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>97700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>131400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>102400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>98000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>89500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>129500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>84700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>75700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>70400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>169800</v>
+      </c>
+      <c r="E46" s="3">
         <v>184600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>210300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>242900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>201800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>197000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>162200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>204300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>137500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>126100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>118200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>150200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>116600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>109600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>101800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>145400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>96100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>95900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>101200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E47" s="3">
         <v>6300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>6000</v>
       </c>
       <c r="G47" s="3">
         <v>6000</v>
       </c>
       <c r="H47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I47" s="3">
         <v>5700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6200</v>
-      </c>
-      <c r="L47" s="3">
-        <v>6300</v>
       </c>
       <c r="M47" s="3">
         <v>6300</v>
@@ -2910,8 +3015,8 @@
       <c r="R47" s="3">
         <v>6300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
+      <c r="S47" s="3">
+        <v>6300</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -2922,70 +3027,76 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>281300</v>
+      </c>
+      <c r="E48" s="3">
         <v>287200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>295200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>304600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>296600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>301100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>304200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>303800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>284400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>282200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>334200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>165900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>144800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>129200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>109700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>98200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>75700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>62500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>52400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3005,22 +3116,22 @@
         <v>700</v>
       </c>
       <c r="I49" s="3">
+        <v>700</v>
+      </c>
+      <c r="J49" s="3">
         <v>1700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>700</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
       </c>
       <c r="L49" s="3">
+        <v>700</v>
+      </c>
+      <c r="M49" s="3">
         <v>400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>400</v>
       </c>
       <c r="O49" s="3">
         <v>400</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>463200</v>
+      </c>
+      <c r="E54" s="3">
         <v>482200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>515600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>554700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>506200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>505600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>474100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>518100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>434100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>418900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>295300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>324500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>270400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>249000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>223100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>252900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>181700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>160000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>156000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,368 +3534,384 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E57" s="3">
         <v>40100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>55400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>20800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>21800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2400</v>
-      </c>
-      <c r="T58" s="3">
-        <v>700</v>
       </c>
       <c r="U58" s="3">
         <v>700</v>
       </c>
       <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E59" s="3">
         <v>49800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>56300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>38000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>32900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>25700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>25300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>25000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E60" s="3">
         <v>110700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>95700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>106300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>84100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>82600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>79800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>95500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>62700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>65200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>69600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>50300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>58800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>37800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>36700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>35100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E61" s="3">
         <v>69400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>116300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>160700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>141400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>149800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>103500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>156500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>99200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>77500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>67900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>111200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>76900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>70000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E62" s="3">
         <v>110100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>112500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>119000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>113200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>112400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>123100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>113100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>110200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>127900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>5500</v>
       </c>
       <c r="O62" s="3">
         <v>5500</v>
       </c>
       <c r="P62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>5400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4800</v>
-      </c>
-      <c r="S62" s="3">
-        <v>3700</v>
       </c>
       <c r="T62" s="3">
         <v>3700</v>
@@ -3774,10 +3920,13 @@
         <v>3700</v>
       </c>
       <c r="V62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="W62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>258800</v>
+      </c>
+      <c r="E66" s="3">
         <v>287800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>322100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>383700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>336500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>342600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>295800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>364600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>280400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>267800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>135000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>185300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>128500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>113900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>87000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>136800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>65300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>44800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E72" s="3">
         <v>101700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>101200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>79300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>78400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>72500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>87600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>63200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>63000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>61100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>70600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>48100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>29400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>25100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>24700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>204400</v>
+      </c>
+      <c r="E76" s="3">
         <v>194400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>193500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>171100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>169700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>163100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>178300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>153500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>153700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>151100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>160300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>139200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>141900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>135100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>136100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>116100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>116400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>111900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>111200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E80" s="2">
         <v>44318</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44136</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44045</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43954</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43863</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43772</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43681</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43590</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43499</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43401</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43310</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43219</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43128</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43037</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42946</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42764</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="E83" s="3">
         <v>7300</v>
       </c>
       <c r="F83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G83" s="3">
         <v>7900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>4400</v>
       </c>
       <c r="M83" s="3">
         <v>4400</v>
       </c>
       <c r="N83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O83" s="3">
         <v>3100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E89" s="3">
         <v>12400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>79400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-33500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>56000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-39600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>54600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>64800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-22800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>47000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-31600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-44300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>44700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-51500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>45200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>22400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-47300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>29500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>22000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-51800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>39300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>16400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>34400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>23900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44409</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44318</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44136</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44045</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43954</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43863</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43772</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43681</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43590</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43499</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43401</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43310</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43219</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43128</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43037</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42946</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42764</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E8" s="3">
         <v>149100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>133400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>256000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>135500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>137400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>109900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>259600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>119800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>122000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>114200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>250500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>106700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>110700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>217800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>83700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>86200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>83700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>174700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E9" s="3">
         <v>67700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>66900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>120300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>64500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>64900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>57600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>122600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>57200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>53300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>119300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>45700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>44300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>101800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>36300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>37300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>35000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>77900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E10" s="3">
         <v>81400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>66500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>135700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>71000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>72500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>52300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>137000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>65400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>60900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>131200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>61000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>62300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>55900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>116000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>47400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>48900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>48700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>96800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,11 +1148,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>1600</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1149,8 +1169,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1191,25 +1214,25 @@
         <v>800</v>
       </c>
       <c r="H15" s="3">
+        <v>800</v>
+      </c>
+      <c r="I15" s="3">
         <v>900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>500</v>
       </c>
       <c r="L15" s="3">
         <v>500</v>
       </c>
       <c r="M15" s="3">
+        <v>500</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1220,8 +1243,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E17" s="3">
         <v>136000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>131500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>225400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>132700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>128900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>226500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>118400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>118200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>123900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>220400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>188300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>84300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>78800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>82900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>151800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E18" s="3">
         <v>13100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>33100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>30100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>29500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>22900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,64 +1448,65 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1480,268 +1514,283 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E21" s="3">
         <v>20400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
+        <v>38000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>39300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M21" s="3">
+        <v>8700</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>34700</v>
+      </c>
+      <c r="P21" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>12700</v>
+      </c>
+      <c r="R21" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>32000</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U21" s="3">
         <v>9200</v>
       </c>
-      <c r="F21" s="3">
-        <v>38000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>16100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>39300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>7900</v>
-      </c>
-      <c r="L21" s="3">
-        <v>8700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>34700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>12700</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>2200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>32000</v>
-      </c>
-      <c r="S21" s="3">
-        <v>1300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>9200</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>24400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>800</v>
       </c>
       <c r="R22" s="3">
         <v>800</v>
       </c>
       <c r="S22" s="3">
+        <v>800</v>
+      </c>
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>12000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>31800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>29000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>9000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2029,8 +2090,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2047,11 +2108,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>1500</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,64 +2262,67 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2260,73 +2330,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>9000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>9000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44409</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44318</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44136</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44045</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43954</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43863</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43772</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43681</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43590</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43499</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43401</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43310</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43219</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43128</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43037</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42946</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42764</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2661,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E41" s="3">
         <v>18900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26100</v>
       </c>
-      <c r="F41" s="3">
-        <v>47200</v>
-      </c>
       <c r="G41" s="3">
+        <v>46600</v>
+      </c>
+      <c r="H41" s="3">
         <v>12800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2200</v>
       </c>
       <c r="K41" s="3">
         <v>2200</v>
       </c>
       <c r="L41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,300 +2795,315 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E43" s="3">
         <v>4900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>165100</v>
+      </c>
+      <c r="E44" s="3">
         <v>134900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>144200</v>
       </c>
-      <c r="F44" s="3">
-        <v>149100</v>
-      </c>
       <c r="G44" s="3">
+        <v>298100</v>
+      </c>
+      <c r="H44" s="3">
         <v>213400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>167600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>175000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>147800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>183100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>114800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>104300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>97700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>131400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>102400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>98000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>89500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>129500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>84700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>75700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>70400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E45" s="3">
         <v>11200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9700</v>
       </c>
-      <c r="F45" s="3">
-        <v>8700</v>
-      </c>
       <c r="G45" s="3">
+        <v>18900</v>
+      </c>
+      <c r="H45" s="3">
         <v>9700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>206600</v>
+      </c>
+      <c r="E46" s="3">
         <v>169800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>184600</v>
       </c>
-      <c r="F46" s="3">
-        <v>210300</v>
-      </c>
       <c r="G46" s="3">
+        <v>209700</v>
+      </c>
+      <c r="H46" s="3">
         <v>242900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>201800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>197000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>162200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>204300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>137500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>126100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>118200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>150200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>116600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>109600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>101800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>145400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>96100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>95900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>101200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E47" s="3">
         <v>6700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>6000</v>
       </c>
       <c r="H47" s="3">
         <v>6000</v>
       </c>
       <c r="I47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J47" s="3">
         <v>5700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6200</v>
-      </c>
-      <c r="M47" s="3">
-        <v>6300</v>
       </c>
       <c r="N47" s="3">
         <v>6300</v>
@@ -3018,8 +3123,8 @@
       <c r="S47" s="3">
         <v>6300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
+      <c r="T47" s="3">
+        <v>6300</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3030,73 +3135,79 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>289600</v>
+      </c>
+      <c r="E48" s="3">
         <v>281300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>287200</v>
       </c>
-      <c r="F48" s="3">
-        <v>295200</v>
-      </c>
       <c r="G48" s="3">
+        <v>590400</v>
+      </c>
+      <c r="H48" s="3">
         <v>304600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>296600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>301100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>304200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>303800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>284400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>282200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>334200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>165900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>144800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>129200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>109700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>98200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>75700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>62500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>52400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3119,22 +3230,22 @@
         <v>700</v>
       </c>
       <c r="J49" s="3">
+        <v>700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>700</v>
       </c>
       <c r="L49" s="3">
         <v>700</v>
       </c>
       <c r="M49" s="3">
+        <v>700</v>
+      </c>
+      <c r="N49" s="3">
         <v>400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>700</v>
-      </c>
-      <c r="O49" s="3">
-        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>400</v>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>4600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
-        <v>3300</v>
-      </c>
       <c r="G52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>508200</v>
+      </c>
+      <c r="E54" s="3">
         <v>463200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>482200</v>
       </c>
-      <c r="F54" s="3">
-        <v>515600</v>
-      </c>
       <c r="G54" s="3">
+        <v>514900</v>
+      </c>
+      <c r="H54" s="3">
         <v>554700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>506200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>505600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>474100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>518100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>434100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>418900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>295300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>324500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>270400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>249000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>223100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>252900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>181700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>160000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>156000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,386 +3665,402 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E57" s="3">
         <v>37700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>30100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>17800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>700</v>
       </c>
       <c r="V58" s="3">
         <v>700</v>
       </c>
       <c r="W58" s="3">
+        <v>700</v>
+      </c>
+      <c r="X58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E59" s="3">
         <v>44700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49800</v>
       </c>
-      <c r="F59" s="3">
-        <v>56300</v>
-      </c>
       <c r="G59" s="3">
+        <v>94000</v>
+      </c>
+      <c r="H59" s="3">
         <v>43500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>26700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>32900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>25700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>25300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>25000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>116700</v>
+      </c>
+      <c r="E60" s="3">
         <v>85700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>110700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>95700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>106300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>84100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>82600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>79800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>95500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>52600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>65200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>42800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>69600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>50300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>58800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>37800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>36700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>35100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E61" s="3">
         <v>68600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>69400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>116300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>160700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>141400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>149800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>103500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>156500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>99200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>77500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>67900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>111200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>76900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>35600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>70000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E62" s="3">
         <v>107000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>110100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>112500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>119000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>113200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>112400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>123100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>113100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>110200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>127900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>5500</v>
       </c>
       <c r="P62" s="3">
         <v>5500</v>
       </c>
       <c r="Q62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R62" s="3">
         <v>5400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4800</v>
-      </c>
-      <c r="T62" s="3">
-        <v>3700</v>
       </c>
       <c r="U62" s="3">
         <v>3700</v>
@@ -3923,10 +4069,13 @@
         <v>3700</v>
       </c>
       <c r="W62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300400</v>
+      </c>
+      <c r="E66" s="3">
         <v>258800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>287800</v>
       </c>
-      <c r="F66" s="3">
-        <v>322100</v>
-      </c>
       <c r="G66" s="3">
+        <v>321500</v>
+      </c>
+      <c r="H66" s="3">
         <v>383700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>336500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>342600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>295800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>364600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>280400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>267800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>135000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>185300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>128500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>113900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>87000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>136800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>65300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>44800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E72" s="3">
         <v>110700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>101700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>101200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>79300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>78400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>72500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>87600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>63200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>63000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>61100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>70600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>53100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>48100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>29400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>25100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>24700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>207800</v>
+      </c>
+      <c r="E76" s="3">
         <v>204400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>194400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>193500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>171100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>169700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>163100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>178300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>153500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>153700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>151100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>160300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>139200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>141900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>135100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>136100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>116100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>116400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>111900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>111200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44409</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44318</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44136</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44045</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43954</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43863</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43772</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43681</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43590</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43499</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43401</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43310</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43219</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43128</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43037</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42946</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42764</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>9000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5218,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3">
         <v>7300</v>
       </c>
-      <c r="F83" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>4400</v>
       </c>
       <c r="N83" s="3">
         <v>4400</v>
       </c>
       <c r="O83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P83" s="3">
         <v>3100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E89" s="3">
         <v>14100</v>
       </c>
-      <c r="E89" s="3">
-        <v>12400</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3">
         <v>79400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>56000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-39600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>54600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>64800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-22800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>47000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-18900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-18300</v>
       </c>
-      <c r="E100" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3">
         <v>-44300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>44700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-51500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>45200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>22400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-47300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>29500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>22000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-51800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>39300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>16400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-21200</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3">
         <v>34400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>23900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,322 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44409</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44318</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44136</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44045</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43954</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43863</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43772</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43681</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43590</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43499</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43401</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43310</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43219</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43128</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43037</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42946</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42764</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>270800</v>
+      </c>
+      <c r="E8" s="3">
         <v>145300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>149100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>133400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>256000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>135500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>137400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>109900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>259600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>119800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>122000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>114200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>250500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>106700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>110700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>100200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>217800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>83700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>86200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>83700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>174700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E9" s="3">
         <v>61600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>67700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>66900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>120300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>64500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>64900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>57600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>122600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>57200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>119300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>45700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>44300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>101800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>36300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>37300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>35000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>77900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E10" s="3">
         <v>83700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>81400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>135700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>71000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>72500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>137000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>65400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>60900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>131200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>62300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>55900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>116000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>47400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>48900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>48700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>96800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1074,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1145,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,11 +1171,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>1600</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1172,8 +1192,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1196,8 +1216,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1217,25 +1240,25 @@
         <v>800</v>
       </c>
       <c r="I15" s="3">
+        <v>800</v>
+      </c>
+      <c r="J15" s="3">
         <v>900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
-      </c>
-      <c r="L15" s="3">
-        <v>500</v>
       </c>
       <c r="M15" s="3">
         <v>500</v>
       </c>
       <c r="N15" s="3">
+        <v>500</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1246,8 +1269,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1264,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>246500</v>
+      </c>
+      <c r="E17" s="3">
         <v>140400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>136000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>131500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>225400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>132700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>128900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>226500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>118400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>118200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>123900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>220400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>109300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>188300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>84300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>78800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>82900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>151800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E18" s="3">
         <v>4900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>33100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>30100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>29500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>22900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,67 +1482,68 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1517,280 +1551,295 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E21" s="3">
         <v>11900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H21" s="3">
         <v>38000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>39300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>34700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>32000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>24400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>800</v>
       </c>
       <c r="S22" s="3">
         <v>800</v>
       </c>
       <c r="T22" s="3">
+        <v>800</v>
+      </c>
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>31800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>29000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E26" s="3">
         <v>2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E27" s="3">
         <v>2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2093,8 +2154,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2111,11 +2172,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>1500</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,67 +2332,70 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2333,76 +2403,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E33" s="3">
         <v>2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>14000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E35" s="3">
         <v>2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>14000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44409</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44318</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44136</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44045</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43954</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43863</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43772</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43681</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43590</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43499</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43401</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43310</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43219</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43128</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43037</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42946</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42764</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2748,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E41" s="3">
         <v>20400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>46600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2200</v>
       </c>
       <c r="L41" s="3">
         <v>2200</v>
       </c>
       <c r="M41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,8 +2888,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2807,271 +2900,283 @@
         <v>7700</v>
       </c>
       <c r="E43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F43" s="3">
         <v>4900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E44" s="3">
         <v>165100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>134900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>144200</v>
       </c>
-      <c r="G44" s="3">
-        <v>298100</v>
-      </c>
       <c r="H44" s="3">
+        <v>149100</v>
+      </c>
+      <c r="I44" s="3">
         <v>213400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>167600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>175000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>147800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>183100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>114800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>104300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>97700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>131400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>102400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>98000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>89500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>129500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>84700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>75700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>70400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E45" s="3">
         <v>13400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9700</v>
       </c>
-      <c r="G45" s="3">
-        <v>18900</v>
-      </c>
       <c r="H45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I45" s="3">
         <v>9700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>222500</v>
+      </c>
+      <c r="E46" s="3">
         <v>206600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>169800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>184600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>209700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>242900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>201800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>197000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>162200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>204300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>137500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>126100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>118200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>150200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>116600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>109600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>101800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>145400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>96100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>95900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>101200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3079,34 +3184,34 @@
         <v>6600</v>
       </c>
       <c r="E47" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F47" s="3">
         <v>6700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>6000</v>
       </c>
       <c r="I47" s="3">
         <v>6000</v>
       </c>
       <c r="J47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K47" s="3">
         <v>5700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6200</v>
-      </c>
-      <c r="N47" s="3">
-        <v>6300</v>
       </c>
       <c r="O47" s="3">
         <v>6300</v>
@@ -3126,8 +3231,8 @@
       <c r="T47" s="3">
         <v>6300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
+      <c r="U47" s="3">
+        <v>6300</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3138,81 +3243,87 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>281100</v>
+      </c>
+      <c r="E48" s="3">
         <v>289600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>281300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>287200</v>
       </c>
-      <c r="G48" s="3">
-        <v>590400</v>
-      </c>
       <c r="H48" s="3">
+        <v>295200</v>
+      </c>
+      <c r="I48" s="3">
         <v>304600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>296600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>301100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>304200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>303800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>284400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>282200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>334200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>165900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>144800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>129200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>109700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>98200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>75700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>62500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>52400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
@@ -3233,22 +3344,22 @@
         <v>700</v>
       </c>
       <c r="K49" s="3">
+        <v>700</v>
+      </c>
+      <c r="L49" s="3">
         <v>1700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>700</v>
       </c>
       <c r="M49" s="3">
         <v>700</v>
       </c>
       <c r="N49" s="3">
+        <v>700</v>
+      </c>
+      <c r="O49" s="3">
         <v>400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>700</v>
-      </c>
-      <c r="P49" s="3">
-        <v>400</v>
       </c>
       <c r="Q49" s="3">
         <v>400</v>
@@ -3274,8 +3385,11 @@
       <c r="X49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3527,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3419,67 +3539,70 @@
         <v>4700</v>
       </c>
       <c r="E52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3400</v>
       </c>
-      <c r="G52" s="3">
-        <v>7300</v>
-      </c>
       <c r="H52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3669,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>515600</v>
+      </c>
+      <c r="E54" s="3">
         <v>508200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>463200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>482200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>514900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>554700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>506200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>505600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>474100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>518100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>434100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>418900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>295300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>324500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>270400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>249000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>223100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>252900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>181700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>160000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>156000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,76 +3796,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E57" s="3">
         <v>59200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>30100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>17800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3743,327 +3877,339 @@
         <v>3400</v>
       </c>
       <c r="E58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>21800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>700</v>
       </c>
       <c r="W58" s="3">
         <v>700</v>
       </c>
       <c r="X58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E59" s="3">
         <v>54200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49800</v>
       </c>
-      <c r="G59" s="3">
-        <v>94000</v>
-      </c>
       <c r="H59" s="3">
+        <v>56300</v>
+      </c>
+      <c r="I59" s="3">
         <v>43500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>38000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>26700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>33200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>32900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>25700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>25300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>25000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E60" s="3">
         <v>116700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>85700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>110700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>95700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>106300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>84100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>82600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>95500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>62700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>65200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>42800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>69600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>50300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>58800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>37800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>36700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>35100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E61" s="3">
         <v>67700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>68600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>69400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>116300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>160700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>141400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>149800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>103500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>156500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>99200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>77500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>67900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>111200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>76900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>35600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>70000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E62" s="3">
         <v>118500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>107000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>110100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>112500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>119000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>113200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>112400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>123100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>113100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>110200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>127900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>5500</v>
       </c>
       <c r="Q62" s="3">
         <v>5500</v>
       </c>
       <c r="R62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="S62" s="3">
         <v>5400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4800</v>
-      </c>
-      <c r="U62" s="3">
-        <v>3700</v>
       </c>
       <c r="V62" s="3">
         <v>3700</v>
@@ -4072,10 +4218,13 @@
         <v>3700</v>
       </c>
       <c r="X62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4433,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E66" s="3">
         <v>300400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>258800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>287800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>321500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>383700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>336500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>342600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>295800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>364600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>280400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>267800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>135000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>185300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>128500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>113900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>87000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>136800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>65300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>48100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>44800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4815,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>130900</v>
+      </c>
+      <c r="E72" s="3">
         <v>113500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>110700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>101700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>101200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>79300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>78400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>72500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>87600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>63200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>63000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>61100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>70600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>48100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>29400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>25100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>24700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5099,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>225900</v>
+      </c>
+      <c r="E76" s="3">
         <v>207800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>204400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>194400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>193500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>171100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>169700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>163100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>178300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>153500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>153700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>151100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>160300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>139200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>141900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>135100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>136100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>116100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>116400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>111900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>111200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44409</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44318</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44136</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44045</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43954</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43863</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43772</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43681</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43590</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43499</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43401</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43310</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43219</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43128</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43037</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42946</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42764</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E81" s="3">
         <v>2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>14000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,76 +5417,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E83" s="3">
         <v>7300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G83" s="3">
         <v>7300</v>
       </c>
       <c r="H83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I83" s="3">
         <v>7900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>4400</v>
       </c>
       <c r="O83" s="3">
         <v>4400</v>
       </c>
       <c r="P83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E89" s="3">
         <v>6200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14100</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G89" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H89" s="3">
         <v>79400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-33500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>56000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-39600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>54600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-11000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>64800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-22800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-8600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>47000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5941,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6152,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,8 +6534,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6300,67 +6546,70 @@
         <v>-700</v>
       </c>
       <c r="E100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-18300</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G100" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="H100" s="3">
         <v>-44300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>44700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-51500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>45200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>22400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-47300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>29500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>14400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>22000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-51800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>39300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>16400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-15300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6676,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7100</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G102" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="H102" s="3">
         <v>34400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-11100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>23900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,335 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E7" s="2">
         <v>44591</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44409</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44318</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44136</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44045</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43954</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43863</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43772</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43681</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43590</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43499</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43401</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43310</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43219</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43128</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43037</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42946</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42764</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E8" s="3">
         <v>270800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>145300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>149100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>133400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>256000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>135500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>137400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>109900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>259600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>119800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>122000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>114200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>250500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>106700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>110700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>100200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>217800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>83700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>86200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>83700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>174700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E9" s="3">
         <v>125100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>61600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>67700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>66900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>120300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>64500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>64900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>57600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>122600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>57200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>53300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>119300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>45700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>48400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>44300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>101800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>36300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>37300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>35000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>77900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E10" s="3">
         <v>145700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>83700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>81400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>66500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>135700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>71000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>72500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>137000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>65400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>64800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>60900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>131200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>62300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>55900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>116000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>47400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>48900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>48700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>96800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,8 +1019,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,8 +1091,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,8 +1165,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1174,11 +1194,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>1600</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1215,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1219,8 +1239,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1243,25 +1266,25 @@
         <v>800</v>
       </c>
       <c r="J15" s="3">
+        <v>800</v>
+      </c>
+      <c r="K15" s="3">
         <v>900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>500</v>
       </c>
       <c r="N15" s="3">
         <v>500</v>
       </c>
       <c r="O15" s="3">
+        <v>500</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1272,8 +1295,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1290,8 +1313,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1340,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>123800</v>
+      </c>
+      <c r="E17" s="3">
         <v>246500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>140400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>136000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>131500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>225400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>132700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>127600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>128900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>226500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>118400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>118200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>123900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>220400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>109300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>188300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>84300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>78800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>82900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>151800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>24300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>29500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>22900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,70 +1516,71 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1554,292 +1588,307 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E21" s="3">
         <v>31900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>38000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>39300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>34700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>32000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>24400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>800</v>
       </c>
       <c r="T22" s="3">
         <v>800</v>
       </c>
       <c r="U22" s="3">
+        <v>800</v>
+      </c>
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>23200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>31800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>28000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>29000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>22900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>5800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,150 +1958,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>17300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>14000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>17400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>18000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>14000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2180,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2157,8 +2218,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2175,11 +2236,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>1500</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2193,8 +2254,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2328,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,70 +2402,73 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2406,79 +2476,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>17400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>19500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>14000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2624,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>17400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>19500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>14000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E38" s="2">
         <v>44591</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44409</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44318</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44136</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44045</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43954</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43863</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43772</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43681</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43590</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43499</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43401</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43310</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43219</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43128</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43037</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42946</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42764</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2807,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,79 +2835,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E41" s="3">
         <v>77100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>46600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8900</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2200</v>
       </c>
       <c r="M41" s="3">
         <v>2200</v>
       </c>
       <c r="N41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>24000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2891,330 +2981,345 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7700</v>
+        <v>6900</v>
       </c>
       <c r="E43" s="3">
         <v>7700</v>
       </c>
       <c r="F43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G43" s="3">
         <v>4900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E44" s="3">
         <v>122700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>165100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>134900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>144200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>149100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>213400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>167600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>175000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>147800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>183100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>114800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>104300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>97700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>131400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>102400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>98000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>89500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>129500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>84700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>75700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>70400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E45" s="3">
         <v>15100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>214100</v>
+      </c>
+      <c r="E46" s="3">
         <v>222500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>206600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>169800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>184600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>209700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>242900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>201800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>197000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>162200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>204300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>137500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>126100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>118200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>150200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>116600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>109600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>101800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>145400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>96100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>95900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>101200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="E47" s="3">
         <v>6600</v>
       </c>
       <c r="F47" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G47" s="3">
         <v>6700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>6000</v>
       </c>
       <c r="J47" s="3">
         <v>6000</v>
       </c>
       <c r="K47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L47" s="3">
         <v>5700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6200</v>
-      </c>
-      <c r="O47" s="3">
-        <v>6300</v>
       </c>
       <c r="P47" s="3">
         <v>6300</v>
@@ -3234,8 +3339,8 @@
       <c r="U47" s="3">
         <v>6300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
+      <c r="V47" s="3">
+        <v>6300</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
@@ -3246,79 +3351,85 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>276100</v>
+      </c>
+      <c r="E48" s="3">
         <v>281100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>289600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>281300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>287200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>295200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>304600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>296600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>301100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>304200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>303800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>284400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>282200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>334200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>165900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>144800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>129200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>109700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>98200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>75700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>62500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>52400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3326,7 +3437,7 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
@@ -3347,22 +3458,22 @@
         <v>700</v>
       </c>
       <c r="L49" s="3">
+        <v>700</v>
+      </c>
+      <c r="M49" s="3">
         <v>1700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>700</v>
       </c>
       <c r="N49" s="3">
         <v>700</v>
       </c>
       <c r="O49" s="3">
+        <v>700</v>
+      </c>
+      <c r="P49" s="3">
         <v>400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>700</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>400</v>
       </c>
       <c r="R49" s="3">
         <v>400</v>
@@ -3388,8 +3499,11 @@
       <c r="Y49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3573,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,79 +3647,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4700</v>
+        <v>5900</v>
       </c>
       <c r="E52" s="3">
         <v>4700</v>
       </c>
       <c r="F52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G52" s="3">
         <v>4600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3795,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>502800</v>
+      </c>
+      <c r="E54" s="3">
         <v>515600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>508200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>463200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>482200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>514900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>554700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>506200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>505600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>474100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>518100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>434100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>418900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>295300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>324500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>270400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>249000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>223100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>252900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>181700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>160000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>156000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +3899,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,79 +3927,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E57" s="3">
         <v>45400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>59200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>17300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>30100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>17800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3880,339 +4014,351 @@
         <v>3400</v>
       </c>
       <c r="F58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>21800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2400</v>
-      </c>
-      <c r="W58" s="3">
-        <v>700</v>
       </c>
       <c r="X58" s="3">
         <v>700</v>
       </c>
       <c r="Y58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E59" s="3">
         <v>67200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>54200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>44700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>56300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>38000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>26700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>33200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>32900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>25700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>25300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>25000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>108200</v>
+      </c>
+      <c r="E60" s="3">
         <v>116000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>116700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>85700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>110700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>95700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>106300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>84100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>82600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>95500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>62700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>52600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>65200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>42800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>69600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>50300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>58800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>37800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>36700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>35100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E61" s="3">
         <v>66900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>67700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>68600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>69400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>116300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>160700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>141400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>149800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>103500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>156500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>99200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>77500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>67900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>111200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>76900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>35600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>70000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E62" s="3">
         <v>110000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>118500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>107000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>110100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>112500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>119000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>113200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>112400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>123100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>113100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>110200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>127900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14700</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>5500</v>
       </c>
       <c r="R62" s="3">
         <v>5500</v>
       </c>
       <c r="S62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="T62" s="3">
         <v>5400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4800</v>
-      </c>
-      <c r="V62" s="3">
-        <v>3700</v>
       </c>
       <c r="W62" s="3">
         <v>3700</v>
@@ -4221,10 +4367,13 @@
         <v>3700</v>
       </c>
       <c r="Y62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Z62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4443,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4517,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4591,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>278200</v>
+      </c>
+      <c r="E66" s="3">
         <v>289700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>258800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>287800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>321500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>383700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>336500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>342600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>295800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>364600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>280400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>267800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>135000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>185300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>128500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>113900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>87000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>136800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>65300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>48100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>44800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4695,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4767,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +4841,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +4915,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,79 +4989,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E72" s="3">
         <v>130900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>113500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>110700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>101700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>101200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>79300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>78400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>72500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>87600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>63200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>63000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>61100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>70600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>50000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>53100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>48100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>28600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>29400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>25100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>24700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5137,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5211,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5285,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>224600</v>
+      </c>
+      <c r="E76" s="3">
         <v>225900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>207800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>204400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>194400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>193500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>171100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>169700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>163100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>178300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>153500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>153700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>151100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>160300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>139200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>141900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>135100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>136100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>116100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>116400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>111900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>111200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5433,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E80" s="2">
         <v>44591</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44409</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44318</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44136</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44045</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43954</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43863</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43772</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43681</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43590</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43499</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43401</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43310</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43219</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43128</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43037</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42946</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42764</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>17400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>19500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>14000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,79 +5616,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E83" s="3">
         <v>7400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7300</v>
       </c>
       <c r="H83" s="3">
         <v>7300</v>
       </c>
       <c r="I83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J83" s="3">
         <v>7900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>4400</v>
       </c>
       <c r="P83" s="3">
         <v>4400</v>
       </c>
       <c r="Q83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R83" s="3">
         <v>3100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5762,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +5836,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +5910,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +5984,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6058,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E89" s="3">
         <v>59200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>79400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-33500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>56000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-39600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>54600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-11000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>64800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-22800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-8600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>47000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,79 +6162,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6308,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,79 +6382,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6486,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6324,8 +6558,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6632,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6706,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,79 +6780,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-700</v>
+        <v>-1100</v>
       </c>
       <c r="E100" s="3">
         <v>-700</v>
       </c>
       <c r="F100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G100" s="3">
         <v>-18300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-31600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-44300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>44700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-51500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>45200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>22400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-47300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>29500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>14400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>22000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-51800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>39300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>16400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-15300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6679,75 +6928,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E102" s="3">
         <v>57300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-11100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>23900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,335 +665,348 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44682</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44591</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44409</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44318</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44136</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44045</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43954</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43863</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43772</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43681</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43590</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43499</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43401</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43310</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43219</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43128</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43037</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42946</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42764</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E8" s="3">
         <v>122900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>270800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>145300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>149100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>133400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>256000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>135500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>137400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>109900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>259600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>119800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>122000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>114200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>250500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>106700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>110700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>100200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>217800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>83700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>86200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>83700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>174700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E9" s="3">
         <v>55800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>125100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>61600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>67700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>66900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>120300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>64500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>64900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>57600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>122600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>54400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>57200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>53300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>119300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>45700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>48400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>44300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>101800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>36300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>37300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>35000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>77900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E10" s="3">
         <v>67100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>145700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>83700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>81400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>66500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>135700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>71000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>72500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>137000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>65400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>64800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>131200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>61000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>62300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>55900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>116000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>47400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>48900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>48700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>96800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,8 +1033,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1108,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,8 +1185,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,11 +1217,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>1600</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1218,8 +1238,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1242,8 +1262,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1269,25 +1292,25 @@
         <v>800</v>
       </c>
       <c r="K15" s="3">
+        <v>800</v>
+      </c>
+      <c r="L15" s="3">
         <v>900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>200</v>
-      </c>
-      <c r="N15" s="3">
-        <v>500</v>
       </c>
       <c r="O15" s="3">
         <v>500</v>
       </c>
       <c r="P15" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1298,8 +1321,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1316,8 +1339,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1341,156 +1367,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>137600</v>
+      </c>
+      <c r="E17" s="3">
         <v>123800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>246500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>140400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>136000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>131500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>225400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>132700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>127600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>128900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>226500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>118400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>118200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>123900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>220400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>109300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>188300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>84300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>78800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>82900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>151800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>33100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>30100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>29500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>22900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,73 +1550,74 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -1591,82 +1625,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E21" s="3">
         <v>6600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>38000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>39300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>34700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>32000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>24400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1674,221 +1714,230 @@
         <v>900</v>
       </c>
       <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>800</v>
       </c>
       <c r="U22" s="3">
         <v>800</v>
       </c>
       <c r="V22" s="3">
+        <v>800</v>
+      </c>
+      <c r="W22" s="3">
         <v>700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>31800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>28000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>29000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>22900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,156 +2010,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>18100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>14000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>18000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>14000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2241,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2221,8 +2282,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2239,11 +2300,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>1500</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2257,8 +2318,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2395,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,73 +2472,76 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
@@ -2479,82 +2549,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>19500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>14000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,161 +2703,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>19500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>14000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44682</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44591</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44409</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44318</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44136</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44045</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43954</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43863</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43772</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43681</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43590</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43499</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43401</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43310</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43219</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43128</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43037</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42946</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42764</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2808,8 +2893,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2836,82 +2922,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E41" s="3">
         <v>40400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>77100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>2200</v>
       </c>
       <c r="N41" s="3">
         <v>2200</v>
       </c>
       <c r="O41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>24000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2984,345 +3074,360 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E43" s="3">
         <v>6900</v>
-      </c>
-      <c r="E43" s="3">
-        <v>7700</v>
       </c>
       <c r="F43" s="3">
         <v>7700</v>
       </c>
       <c r="G43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H43" s="3">
         <v>4900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E44" s="3">
         <v>152200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>122700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>165100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>134900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>144200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>149100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>213400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>167600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>175000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>147800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>183100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>114800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>104300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>97700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>131400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>102400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>98000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>89500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>129500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>84700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>75700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>70400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E45" s="3">
         <v>14600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>202500</v>
+      </c>
+      <c r="E46" s="3">
         <v>214100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>222500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>206600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>169800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>184600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>209700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>242900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>201800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>197000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>162200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>204300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>137500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>126100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>118200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>150200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>116600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>109600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>101800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>145400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>96100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>95900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>101200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E47" s="3">
         <v>6100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>6600</v>
       </c>
       <c r="F47" s="3">
         <v>6600</v>
       </c>
       <c r="G47" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H47" s="3">
         <v>6700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>6000</v>
       </c>
       <c r="K47" s="3">
         <v>6000</v>
       </c>
       <c r="L47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M47" s="3">
         <v>5700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6200</v>
-      </c>
-      <c r="P47" s="3">
-        <v>6300</v>
       </c>
       <c r="Q47" s="3">
         <v>6300</v>
@@ -3342,8 +3447,8 @@
       <c r="V47" s="3">
         <v>6300</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
+      <c r="W47" s="3">
+        <v>6300</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
@@ -3354,93 +3459,99 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>278300</v>
+      </c>
+      <c r="E48" s="3">
         <v>276100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>281100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>289600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>281300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>287200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>295200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>304600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>296600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>301100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>304200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>303800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>284400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>282200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>334200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>165900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>144800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>129200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>109700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>98200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>75700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>62500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>52400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E49" s="3">
         <v>600</v>
       </c>
       <c r="F49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -3461,22 +3572,22 @@
         <v>700</v>
       </c>
       <c r="M49" s="3">
+        <v>700</v>
+      </c>
+      <c r="N49" s="3">
         <v>1700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>700</v>
       </c>
       <c r="O49" s="3">
         <v>700</v>
       </c>
       <c r="P49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q49" s="3">
         <v>400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>700</v>
-      </c>
-      <c r="R49" s="3">
-        <v>400</v>
       </c>
       <c r="S49" s="3">
         <v>400</v>
@@ -3502,8 +3613,11 @@
       <c r="Z49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3690,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,8 +3767,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3659,73 +3779,76 @@
         <v>5900</v>
       </c>
       <c r="E52" s="3">
-        <v>4700</v>
+        <v>5900</v>
       </c>
       <c r="F52" s="3">
         <v>4700</v>
       </c>
       <c r="G52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H52" s="3">
         <v>4600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3798,82 +3921,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>493300</v>
+      </c>
+      <c r="E54" s="3">
         <v>502800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>515600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>508200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>463200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>482200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>514900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>554700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>506200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>505600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>474100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>518100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>434100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>418900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>295300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>324500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>270400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>249000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>223100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>252900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>181700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>160000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>156000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3900,8 +4029,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3928,87 +4058,91 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E57" s="3">
         <v>54500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>59200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>55400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>25400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>17300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>30100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>17800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E58" s="3">
         <v>3400</v>
@@ -4017,351 +4151,363 @@
         <v>3400</v>
       </c>
       <c r="G58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>21800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2400</v>
-      </c>
-      <c r="X58" s="3">
-        <v>700</v>
       </c>
       <c r="Y58" s="3">
         <v>700</v>
       </c>
       <c r="Z58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E59" s="3">
         <v>50200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>54200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>44700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>38000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>35200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>26700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>33200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>32900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>25700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>25300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>25000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E60" s="3">
         <v>108200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>116000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>116700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>85700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>110700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>95700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>106300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>84100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>82600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>79800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>95500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>71400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>62700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>52600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>65200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>42800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>69600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>50300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>58800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>37800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>36700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>35100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E61" s="3">
         <v>66000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>66900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>67700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>68600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>69400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>116300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>160700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>141400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>149800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>103500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>156500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>99200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>77500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>67900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>111200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>76900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>35600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>70000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>20200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>103700</v>
+      </c>
+      <c r="E62" s="3">
         <v>107200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>110000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>118500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>107000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>110100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>112500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>119000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>113200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>112400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>123100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>113100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>110200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>127900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>5500</v>
       </c>
       <c r="S62" s="3">
         <v>5500</v>
       </c>
       <c r="T62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="U62" s="3">
         <v>5400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4800</v>
-      </c>
-      <c r="W62" s="3">
-        <v>3700</v>
       </c>
       <c r="X62" s="3">
         <v>3700</v>
@@ -4370,10 +4516,13 @@
         <v>3700</v>
       </c>
       <c r="Z62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AA62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4446,8 +4595,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4520,8 +4672,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4594,82 +4749,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>265700</v>
+      </c>
+      <c r="E66" s="3">
         <v>278200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>289700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>258800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>287800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>321500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>383700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>336500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>342600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>295800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>364600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>280400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>267800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>135000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>185300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>128500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>113900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>87000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>136800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>65300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>48100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>44800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,8 +4857,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +4932,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4844,8 +5009,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4918,8 +5086,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4992,82 +5163,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E72" s="3">
         <v>129600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>130900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>113500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>110700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>101700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>101200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>79300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>78400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>72500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>87600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>63200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>63000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>61100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>70600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>50000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>53100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>48100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>28600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>29400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>25100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>24700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5140,8 +5317,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5214,8 +5394,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5288,82 +5471,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E76" s="3">
         <v>224600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>225900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>207800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>204400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>194400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>193500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>171100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>169700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>163100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>178300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>153500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>153700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>151100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>160300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>139200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>141900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>135100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>136100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>116100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>116400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>111900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>111200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5436,161 +5625,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44682</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44591</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44409</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44318</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44136</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44045</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43954</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43863</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43772</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43681</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43590</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43499</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43401</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43310</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43219</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43128</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43037</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42946</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42764</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>19500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>14000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5617,82 +5815,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E83" s="3">
         <v>7500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7300</v>
       </c>
       <c r="I83" s="3">
         <v>7300</v>
       </c>
       <c r="J83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K83" s="3">
         <v>7900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>4400</v>
       </c>
       <c r="Q83" s="3">
         <v>4400</v>
       </c>
       <c r="R83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S83" s="3">
         <v>3100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,8 +5967,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5839,8 +6044,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5913,8 +6121,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5987,8 +6198,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6061,82 +6275,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>59200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>79400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-33500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>56000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-39600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>54600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-11000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>64800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-22800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-8600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>47000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6163,82 +6383,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6535,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6385,82 +6612,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-18900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6487,8 +6720,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6561,8 +6795,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6635,8 +6872,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6709,8 +6949,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6783,82 +7026,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-700</v>
       </c>
       <c r="F100" s="3">
         <v>-700</v>
       </c>
       <c r="G100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H100" s="3">
         <v>-18300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-31600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-44300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>44700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-51500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>45200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>22400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-47300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>29500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>14400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>22000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-51800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>39300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>16400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-15300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6931,78 +7180,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>57300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>34400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-11100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>23900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,348 +665,361 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44682</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44591</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44409</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44318</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44136</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44045</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43954</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43863</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43772</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43681</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43590</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43499</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43401</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43310</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43219</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43128</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43037</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42946</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42764</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E8" s="3">
         <v>141500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>122900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>270800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>145300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>149100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>133400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>256000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>135500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>137400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>109900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>259600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>119800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>122000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>114200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>250500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>106700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>110700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>100200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>217800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>83700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>86200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>83700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>174700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E9" s="3">
         <v>65900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>55800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>125100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>61600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>67700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>66900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>120300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>64500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>57600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>122600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>54400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>57200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>53300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>119300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>45700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>48400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>44300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>101800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>36300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>37300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>35000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>77900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E10" s="3">
         <v>75600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>67100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>145700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>83700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>81400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>66500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>135700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>71000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>72500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>137000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>65400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>64800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>60900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>131200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>61000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>62300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>55900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>116000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>47400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>48900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>48700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>96800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1047,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,8 +1125,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1205,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1220,11 +1240,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>1600</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1241,8 +1261,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1265,8 +1285,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,25 +1318,25 @@
         <v>800</v>
       </c>
       <c r="L15" s="3">
+        <v>800</v>
+      </c>
+      <c r="M15" s="3">
         <v>900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>500</v>
       </c>
       <c r="P15" s="3">
         <v>500</v>
       </c>
       <c r="Q15" s="3">
+        <v>500</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1324,8 +1347,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1342,8 +1365,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1368,162 +1394,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>154500</v>
+      </c>
+      <c r="E17" s="3">
         <v>137600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>123800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>246500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>140400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>136000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>131500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>225400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>127600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>128900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>226500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>118400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>118200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>123900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>220400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>109300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>100500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>188300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>84300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>78800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>82900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>151800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E18" s="3">
         <v>3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>24300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>30600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>33100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>30100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>29500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>22900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,8 +1584,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1560,67 +1594,67 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
-      </c>
-      <c r="W20" s="3">
-        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
@@ -1628,316 +1662,331 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>11800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>38000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>39300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>34700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>32000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>24400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
         <v>900</v>
       </c>
       <c r="F22" s="3">
+        <v>900</v>
+      </c>
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>800</v>
       </c>
       <c r="V22" s="3">
         <v>800</v>
       </c>
       <c r="W22" s="3">
+        <v>800</v>
+      </c>
+      <c r="X22" s="3">
         <v>700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E23" s="3">
         <v>3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>31800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>28000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>29000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>22900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,162 +2062,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E26" s="3">
         <v>2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>18100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>14000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E27" s="3">
         <v>2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>18000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>14000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2244,8 +2302,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2285,8 +2346,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2303,11 +2364,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>1500</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2321,8 +2382,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2398,8 +2462,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2475,8 +2542,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2484,67 +2554,67 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
@@ -2552,85 +2622,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E33" s="3">
         <v>2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>19500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>14000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2706,167 +2782,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E35" s="3">
         <v>2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>19500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>14000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44682</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44591</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44409</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44318</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44136</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44045</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43954</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43863</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43772</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43681</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43590</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43499</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43401</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43310</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43219</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43128</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43037</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42946</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42764</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,8 +2979,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2923,85 +3009,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E41" s="3">
         <v>15400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>77100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>26100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>46600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2200</v>
       </c>
       <c r="O41" s="3">
         <v>2200</v>
       </c>
       <c r="P41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>24000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3077,360 +3167,375 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E43" s="3">
         <v>7600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>7700</v>
       </c>
       <c r="G43" s="3">
         <v>7700</v>
       </c>
       <c r="H43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I43" s="3">
         <v>4900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>204700</v>
+      </c>
+      <c r="E44" s="3">
         <v>164500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>152200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>122700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>165100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>134900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>144200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>149100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>213400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>167600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>175000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>147800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>183100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>114800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>104300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>97700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>131400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>102400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>98000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>89500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>129500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>84700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>75700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>70400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E45" s="3">
         <v>15100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>13300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>6400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E46" s="3">
         <v>202500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>214100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>222500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>206600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>169800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>184600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>209700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>242900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>201800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>197000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>162200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>204300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>137500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>126100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>118200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>150200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>116600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>109600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>101800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>145400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>96100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>95900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>101200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E47" s="3">
         <v>5800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>6600</v>
       </c>
       <c r="G47" s="3">
         <v>6600</v>
       </c>
       <c r="H47" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I47" s="3">
         <v>6700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>6000</v>
       </c>
       <c r="L47" s="3">
         <v>6000</v>
       </c>
       <c r="M47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N47" s="3">
         <v>5700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6200</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>6300</v>
       </c>
       <c r="R47" s="3">
         <v>6300</v>
@@ -3450,8 +3555,8 @@
       <c r="W47" s="3">
         <v>6300</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
+      <c r="X47" s="3">
+        <v>6300</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>8</v>
@@ -3462,85 +3567,91 @@
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>295900</v>
+      </c>
+      <c r="E48" s="3">
         <v>278300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>276100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>281100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>289600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>281300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>287200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>295200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>304600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>296600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>301100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>304200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>303800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>284400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>282200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>334200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>165900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>144800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>129200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>109700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>98200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>75700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>62500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>52400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3548,13 +3659,13 @@
         <v>900</v>
       </c>
       <c r="E49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F49" s="3">
         <v>600</v>
       </c>
       <c r="G49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
@@ -3575,22 +3686,22 @@
         <v>700</v>
       </c>
       <c r="N49" s="3">
+        <v>700</v>
+      </c>
+      <c r="O49" s="3">
         <v>1700</v>
-      </c>
-      <c r="O49" s="3">
-        <v>700</v>
       </c>
       <c r="P49" s="3">
         <v>700</v>
       </c>
       <c r="Q49" s="3">
+        <v>700</v>
+      </c>
+      <c r="R49" s="3">
         <v>400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>700</v>
-      </c>
-      <c r="S49" s="3">
-        <v>400</v>
       </c>
       <c r="T49" s="3">
         <v>400</v>
@@ -3616,8 +3727,11 @@
       <c r="AA49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3693,8 +3807,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3770,85 +3887,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="E52" s="3">
         <v>5900</v>
       </c>
       <c r="F52" s="3">
-        <v>4700</v>
+        <v>5900</v>
       </c>
       <c r="G52" s="3">
         <v>4700</v>
       </c>
       <c r="H52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I52" s="3">
         <v>4600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3924,85 +4047,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>547700</v>
+      </c>
+      <c r="E54" s="3">
         <v>493300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>502800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>515600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>508200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>463200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>482200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>514900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>554700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>506200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>505600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>474100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>518100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>434100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>418900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>295300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>324500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>270400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>249000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>223100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>252900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>181700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>160000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>156000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4030,8 +4159,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4059,93 +4189,97 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E57" s="3">
         <v>53600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>59200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>55400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>26700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>25400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>17300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>30100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>17800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3400</v>
       </c>
       <c r="F58" s="3">
         <v>3400</v>
@@ -4154,363 +4288,375 @@
         <v>3400</v>
       </c>
       <c r="H58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>21800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2400</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>700</v>
       </c>
       <c r="Z58" s="3">
         <v>700</v>
       </c>
       <c r="AA58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E59" s="3">
         <v>43000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>44700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>56300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>38000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>26700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>33200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>32900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>25700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>25300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>25000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>141300</v>
+      </c>
+      <c r="E60" s="3">
         <v>100100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>108200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>116000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>116700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>85700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>110700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>95700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>106300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>84100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>82600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>79800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>95500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>71400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>62700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>52600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>65200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>42800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>69600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>50300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>58800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>37800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>36700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>35100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E61" s="3">
         <v>65100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>66000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>66900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>67700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>68600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>69400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>116300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>160700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>141400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>149800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>103500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>156500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>99200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>77500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>67900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>111200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>76900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>35600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>70000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E62" s="3">
         <v>103700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>107200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>110000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>118500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>107000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>110100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>112500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>119000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>113200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>112400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>123100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>113100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>110200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>127900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14700</v>
-      </c>
-      <c r="S62" s="3">
-        <v>5500</v>
       </c>
       <c r="T62" s="3">
         <v>5500</v>
       </c>
       <c r="U62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="V62" s="3">
         <v>5400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4800</v>
-      </c>
-      <c r="X62" s="3">
-        <v>3700</v>
       </c>
       <c r="Y62" s="3">
         <v>3700</v>
@@ -4519,10 +4665,13 @@
         <v>3700</v>
       </c>
       <c r="AA62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AB62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4598,8 +4747,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4675,8 +4827,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4752,85 +4907,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>325800</v>
+      </c>
+      <c r="E66" s="3">
         <v>265700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>278200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>289700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>258800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>287800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>321500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>383700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>336500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>342600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>295800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>364600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>280400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>267800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>135000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>185300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>128500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>113900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>87000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>136800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>65300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>48100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>44800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4858,8 +5019,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4935,8 +5097,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5012,8 +5177,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5089,8 +5257,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5166,85 +5337,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E72" s="3">
         <v>131900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>129600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>130900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>113500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>110700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>101700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>101200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>79300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>78400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>72500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>87600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>63200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>63000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>61100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>70600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>50000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>53100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>46700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>48100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>28600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>29400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>25100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>24700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5320,8 +5497,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5397,8 +5577,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5474,85 +5657,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>221900</v>
+      </c>
+      <c r="E76" s="3">
         <v>227600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>224600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>225900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>207800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>204400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>194400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>193500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>171100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>169700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>163100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>178300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>153500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>153700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>151100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>160300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>139200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>141900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>135100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>136100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>116100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>116400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>111900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>111200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5628,167 +5817,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44682</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44591</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44409</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44318</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44136</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44045</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43954</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43863</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43772</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43681</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43590</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43499</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43401</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43310</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43219</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43128</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43037</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42946</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42764</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E81" s="3">
         <v>2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>19500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>14000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5816,85 +6014,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E83" s="3">
         <v>7900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7300</v>
       </c>
       <c r="J83" s="3">
         <v>7300</v>
       </c>
       <c r="K83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L83" s="3">
         <v>7900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>4400</v>
       </c>
       <c r="R83" s="3">
         <v>4400</v>
       </c>
       <c r="S83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="T83" s="3">
         <v>3100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5970,8 +6172,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6047,8 +6252,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6124,8 +6332,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6201,8 +6412,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6278,85 +6492,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>59200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>79400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-33500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>56000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-39600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>54600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-11000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>64800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-22800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>47000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6384,85 +6604,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6538,8 +6762,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6615,85 +6842,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-17300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-18900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6721,8 +6954,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6798,8 +7032,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6875,8 +7112,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6952,8 +7192,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7029,85 +7272,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-700</v>
       </c>
       <c r="G100" s="3">
         <v>-700</v>
       </c>
       <c r="H100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I100" s="3">
         <v>-18300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-31600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-44300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>44700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-51500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>45200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>22400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-47300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>29500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>14400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>22000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-51800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>39300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>16400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-15300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7183,81 +7432,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-36700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>57300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>34400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>23900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,361 +665,374 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E7" s="2">
         <v>44864</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44682</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44591</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44409</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44318</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44136</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44045</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43954</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43863</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43772</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43681</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43590</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43499</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43401</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43310</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43219</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43128</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43037</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42946</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42764</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E8" s="3">
         <v>147100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>141500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>122900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>270800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>145300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>149100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>133400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>256000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>135500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>137400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>109900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>259600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>119800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>122000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>114200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>250500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>106700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>110700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>100200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>217800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>83700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>86200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>83700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>174700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E9" s="3">
         <v>70200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>65900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>55800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>125100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>61600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>67700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>66900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>120300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>57600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>122600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>54400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>57200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>53300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>119300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>45700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>48400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>44300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>101800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>36300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>37300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>35000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>77900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>123900</v>
+      </c>
+      <c r="E10" s="3">
         <v>76900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>75600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>67100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>145700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>83700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>81400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>66500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>135700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>71000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>72500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>137000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>65400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>64800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>60900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>131200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>61000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>62300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>55900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>116000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>47400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>48900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>48700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>96800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1061,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1128,8 +1142,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,8 +1225,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1243,11 +1263,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>1600</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1264,8 +1284,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1288,8 +1308,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1321,25 +1344,25 @@
         <v>800</v>
       </c>
       <c r="M15" s="3">
+        <v>800</v>
+      </c>
+      <c r="N15" s="3">
         <v>900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>200</v>
-      </c>
-      <c r="P15" s="3">
-        <v>500</v>
       </c>
       <c r="Q15" s="3">
         <v>500</v>
       </c>
       <c r="R15" s="3">
+        <v>500</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1350,8 +1373,8 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1368,8 +1391,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1395,168 +1421,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E17" s="3">
         <v>154500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>137600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>123800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>246500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>140400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>136000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>131500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>225400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>127600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>128900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>226500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>118400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>118200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>123900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>220400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>109300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>100800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>100500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>188300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>84300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>78800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>82900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>151800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>24300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>30100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>29500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>22900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1585,79 +1618,80 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
-      </c>
-      <c r="X20" s="3">
-        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
@@ -1665,328 +1699,343 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>31900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>38000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>39300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>34700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>32000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>24400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>900</v>
       </c>
       <c r="F22" s="3">
         <v>900</v>
       </c>
       <c r="G22" s="3">
+        <v>900</v>
+      </c>
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>800</v>
       </c>
       <c r="W22" s="3">
         <v>800</v>
       </c>
       <c r="X22" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y22" s="3">
         <v>700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>23200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>31800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>28000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>29000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>22900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>8800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2065,168 +2114,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>18100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>14000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>18000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>14000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,8 +2363,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2349,8 +2410,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2367,11 +2428,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>1500</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2385,8 +2446,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2465,8 +2529,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2545,79 +2612,82 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
@@ -2625,88 +2695,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>19500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>14000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2785,173 +2861,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>19500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>14000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E38" s="2">
         <v>44864</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44682</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44591</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44409</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44318</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44136</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44045</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43954</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43863</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43772</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43681</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43590</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43499</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43401</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43310</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43219</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43128</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43037</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42946</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42764</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2980,8 +3065,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3010,88 +3096,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E41" s="3">
         <v>9400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>77100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>46600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>2200</v>
       </c>
       <c r="P41" s="3">
         <v>2200</v>
       </c>
       <c r="Q41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>24000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3170,375 +3260,390 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E43" s="3">
         <v>10200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>7700</v>
       </c>
       <c r="H43" s="3">
         <v>7700</v>
       </c>
       <c r="I43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J43" s="3">
         <v>4900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>154900</v>
+      </c>
+      <c r="E44" s="3">
         <v>204700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>164500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>152200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>122700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>165100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>134900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>144200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>149100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>213400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>167600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>175000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>147800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>183100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>114800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>104300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>97700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>131400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>102400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>98000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>89500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>129500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>84700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>75700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>70400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E45" s="3">
         <v>15700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>15100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>13300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>6400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>225900</v>
+      </c>
+      <c r="E46" s="3">
         <v>240000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>202500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>214100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>222500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>206600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>169800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>184600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>209700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>242900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>201800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>197000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>162200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>204300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>137500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>126100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>118200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>150200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>116600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>109600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>101800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>145400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>96100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>95900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>101200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E47" s="3">
         <v>5300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>6600</v>
       </c>
       <c r="H47" s="3">
         <v>6600</v>
       </c>
       <c r="I47" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J47" s="3">
         <v>6700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6100</v>
-      </c>
-      <c r="L47" s="3">
-        <v>6000</v>
       </c>
       <c r="M47" s="3">
         <v>6000</v>
       </c>
       <c r="N47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O47" s="3">
         <v>5700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6200</v>
-      </c>
-      <c r="R47" s="3">
-        <v>6300</v>
       </c>
       <c r="S47" s="3">
         <v>6300</v>
@@ -3558,8 +3663,8 @@
       <c r="X47" s="3">
         <v>6300</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
+      <c r="Y47" s="3">
+        <v>6300</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
@@ -3570,88 +3675,94 @@
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>287300</v>
+      </c>
+      <c r="E48" s="3">
         <v>295900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>278300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>276100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>281100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>289600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>281300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>287200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>295200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>304600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>296600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>301100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>304200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>303800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>284400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>282200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>334200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>165900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>144800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>129200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>109700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>98200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>75700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>62500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>52400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3662,13 +3773,13 @@
         <v>900</v>
       </c>
       <c r="F49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G49" s="3">
         <v>600</v>
       </c>
       <c r="H49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I49" s="3">
         <v>700</v>
@@ -3689,22 +3800,22 @@
         <v>700</v>
       </c>
       <c r="O49" s="3">
+        <v>700</v>
+      </c>
+      <c r="P49" s="3">
         <v>1700</v>
-      </c>
-      <c r="P49" s="3">
-        <v>700</v>
       </c>
       <c r="Q49" s="3">
         <v>700</v>
       </c>
       <c r="R49" s="3">
+        <v>700</v>
+      </c>
+      <c r="S49" s="3">
         <v>400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>700</v>
-      </c>
-      <c r="T49" s="3">
-        <v>400</v>
       </c>
       <c r="U49" s="3">
         <v>400</v>
@@ -3730,8 +3841,11 @@
       <c r="AB49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3810,8 +3924,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3890,88 +4007,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E52" s="3">
         <v>5600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5900</v>
       </c>
       <c r="F52" s="3">
         <v>5900</v>
       </c>
       <c r="G52" s="3">
-        <v>4700</v>
+        <v>5900</v>
       </c>
       <c r="H52" s="3">
         <v>4700</v>
       </c>
       <c r="I52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J52" s="3">
         <v>4600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4050,88 +4173,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>527500</v>
+      </c>
+      <c r="E54" s="3">
         <v>547700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>493300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>502800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>515600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>508200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>463200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>482200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>514900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>554700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>506200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>505600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>474100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>518100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>434100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>418900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>295300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>324500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>270400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>249000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>223100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>252900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>181700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>160000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>156000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4160,8 +4289,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4190,99 +4320,103 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E57" s="3">
         <v>77800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>59200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>55400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>26700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>17300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>30100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>17800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
         <v>13600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3400</v>
       </c>
       <c r="G58" s="3">
         <v>3400</v>
@@ -4291,375 +4425,387 @@
         <v>3400</v>
       </c>
       <c r="I58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>21800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2400</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>700</v>
       </c>
       <c r="AA58" s="3">
         <v>700</v>
       </c>
       <c r="AB58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E59" s="3">
         <v>49900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>44700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>38000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>35200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>26700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>22800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>33200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>32900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>25700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>25300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>25000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E60" s="3">
         <v>141300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>108200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>116000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>116700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>85700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>110700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>95700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>106300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>84100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>82600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>79800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>95500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>71400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>62700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>52600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>65200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>42800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>69600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>50300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>58800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>37800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>36700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>35100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E61" s="3">
         <v>64300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>65100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>66000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>66900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>67700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>68600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>69400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>116300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>160700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>141400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>149800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>103500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>156500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>99200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>77500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>67900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>111200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>76900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>35600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>70000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>118600</v>
+      </c>
+      <c r="E62" s="3">
         <v>123500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>103700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>107200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>110000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>118500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>107000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>110100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>112500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>119000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>113200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>112400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>123100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>113100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>110200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>127900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14700</v>
-      </c>
-      <c r="T62" s="3">
-        <v>5500</v>
       </c>
       <c r="U62" s="3">
         <v>5500</v>
       </c>
       <c r="V62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="W62" s="3">
         <v>5400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4800</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>3700</v>
       </c>
       <c r="Z62" s="3">
         <v>3700</v>
@@ -4668,10 +4814,13 @@
         <v>3700</v>
       </c>
       <c r="AB62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AC62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,8 +4899,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,8 +4982,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4910,88 +5065,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E66" s="3">
         <v>325800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>265700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>278200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>289700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>258800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>287800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>321500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>383700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>336500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>342600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>295800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>364600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>280400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>267800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>135000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>185300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>128500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>113900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>87000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>136800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>65300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>48100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>44800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5020,8 +5181,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5100,8 +5262,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5180,8 +5345,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5260,8 +5428,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5340,88 +5511,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E72" s="3">
         <v>125700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>131900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>129600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>130900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>113500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>110700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>101700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>101200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>79300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>78400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>72500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>87600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>63200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>63000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>61100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>70600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>50000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>53100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>46700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>48100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>28600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>29400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>25100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>24700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5500,8 +5677,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5580,8 +5760,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5660,88 +5843,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>230400</v>
+      </c>
+      <c r="E76" s="3">
         <v>221900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>227600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>224600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>225900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>207800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>204400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>194400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>193500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>171100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>169700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>163100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>178300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>153500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>153700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>151100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>160300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>139200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>141900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>135100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>136100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>116100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>116400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>111900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>111200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5820,173 +6009,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E80" s="2">
         <v>44864</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44682</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44591</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44409</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44318</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44136</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44045</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43954</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43863</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43772</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43681</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43590</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43499</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43401</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43310</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43219</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43128</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43037</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42946</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42764</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>19500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>14000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6015,88 +6213,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E83" s="3">
         <v>7600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7300</v>
       </c>
       <c r="K83" s="3">
         <v>7300</v>
       </c>
       <c r="L83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M83" s="3">
         <v>7900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>4400</v>
       </c>
       <c r="S83" s="3">
         <v>4400</v>
       </c>
       <c r="T83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="U83" s="3">
         <v>3100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6175,8 +6377,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6255,8 +6460,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6335,8 +6543,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6415,8 +6626,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6495,88 +6709,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>59200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>79400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-33500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>56000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-13100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>54600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-11000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>64800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-22800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>47000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6605,88 +6825,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6765,8 +6989,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6845,88 +7072,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-18900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6955,8 +7188,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7035,8 +7269,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7115,8 +7352,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7195,8 +7435,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7275,88 +7518,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E100" s="3">
         <v>9300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-700</v>
       </c>
       <c r="H100" s="3">
         <v>-700</v>
       </c>
       <c r="I100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J100" s="3">
         <v>-18300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-44300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>44700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-51500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>45200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>22400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-47300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>29500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>14400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>22000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-51800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>39300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>16400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-15300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7435,84 +7684,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-25000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-36700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>57300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>23900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,374 +665,386 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44955</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44864</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44682</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44591</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44409</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44318</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44136</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44045</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43954</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43863</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43772</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43681</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43590</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43499</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43401</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43310</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43219</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43128</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43037</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42946</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42764</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>123800</v>
+      </c>
+      <c r="E8" s="3">
         <v>241800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>147100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>141500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>270800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>145300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>149100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>133400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>256000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>135500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>137400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>109900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>259600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>119800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>122000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>114200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>250500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>106700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>110700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>100200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>217800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>83700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>86200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>83700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>174700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E9" s="3">
         <v>117900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>70200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>65900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>55800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>125100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>61600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>67700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>66900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>120300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>64900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>57600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>122600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>54400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>57200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>53300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>119300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>45700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>48400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>44300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>101800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>36300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>37300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>35000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>77900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E10" s="3">
         <v>123900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>76900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>75600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>67100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>145700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>83700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>81400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>66500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>135700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>71000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>72500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>137000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>65400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>64800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>60900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>131200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>61000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>62300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>55900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>116000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>47400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>48900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>48700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>96800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1062,8 +1074,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1145,8 +1158,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,8 +1244,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1266,11 +1285,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>1600</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1287,8 +1306,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1311,8 +1330,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1347,25 +1369,25 @@
         <v>800</v>
       </c>
       <c r="N15" s="3">
+        <v>800</v>
+      </c>
+      <c r="O15" s="3">
         <v>900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>200</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>500</v>
       </c>
       <c r="R15" s="3">
         <v>500</v>
       </c>
       <c r="S15" s="3">
+        <v>500</v>
+      </c>
+      <c r="T15" s="3">
         <v>100</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1376,8 +1398,8 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1394,8 +1416,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1422,174 +1447,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E17" s="3">
         <v>231100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>154500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>137600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>123800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>246500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>140400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>136000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>131500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>225400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>128900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>226500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>118400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>118200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>123900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>220400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>109300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>100800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>100500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>188300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>84300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>78800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>82900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>151800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>10700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>30100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>29500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>7400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>22900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1619,82 +1651,83 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>100</v>
       </c>
       <c r="Z20" s="3">
         <v>100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
@@ -1702,91 +1735,97 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="3">
         <v>18700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>31900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>38000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>39300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>34700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>32000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>24400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1794,248 +1833,257 @@
         <v>900</v>
       </c>
       <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>900</v>
       </c>
       <c r="G22" s="3">
         <v>900</v>
       </c>
       <c r="H22" s="3">
+        <v>900</v>
+      </c>
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>800</v>
       </c>
       <c r="X22" s="3">
         <v>800</v>
       </c>
       <c r="Y22" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z22" s="3">
         <v>700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>100</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>9900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>31800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>28000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>29000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>7100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>22900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>8800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2117,174 +2165,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>7500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>18100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>14000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>18000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>14000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2366,8 +2423,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2413,8 +2473,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2431,11 +2491,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>1500</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2449,8 +2509,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2532,8 +2595,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2615,82 +2681,85 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-100</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
@@ -2698,91 +2767,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>19500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>14000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2864,179 +2939,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>19500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>14000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44955</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44864</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44682</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44591</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44409</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44318</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44136</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44045</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43954</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43863</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43772</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43681</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43590</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43499</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43401</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43310</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43219</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43128</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43037</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42946</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42764</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3066,8 +3150,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3097,91 +3182,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E41" s="3">
         <v>45500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>77100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>46600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8900</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2200</v>
       </c>
       <c r="Q41" s="3">
         <v>2200</v>
       </c>
       <c r="R41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>24000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3263,8 +3352,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3272,381 +3364,393 @@
         <v>8400</v>
       </c>
       <c r="E43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F43" s="3">
         <v>10200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>7700</v>
       </c>
       <c r="I43" s="3">
         <v>7700</v>
       </c>
       <c r="J43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K43" s="3">
         <v>4900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E44" s="3">
         <v>154900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>204700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>164500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>152200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>122700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>165100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>134900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>144200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>149100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>213400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>167600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>175000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>147800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>183100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>114800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>104300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>97700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>131400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>102400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>98000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>89500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>129500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>84700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>75700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>70400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E45" s="3">
         <v>17000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>13300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>9500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>6400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E46" s="3">
         <v>225900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>240000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>202500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>214100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>222500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>206600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>169800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>184600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>209700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>242900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>201800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>197000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>162200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>204300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>137500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>126100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>118200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>150200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>116600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>109600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>101800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>145400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>96100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>95900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>101200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E47" s="3">
         <v>5500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>6600</v>
       </c>
       <c r="I47" s="3">
         <v>6600</v>
       </c>
       <c r="J47" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K47" s="3">
         <v>6700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>6000</v>
       </c>
       <c r="N47" s="3">
         <v>6000</v>
       </c>
       <c r="O47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P47" s="3">
         <v>5700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6200</v>
-      </c>
-      <c r="S47" s="3">
-        <v>6300</v>
       </c>
       <c r="T47" s="3">
         <v>6300</v>
@@ -3666,8 +3770,8 @@
       <c r="Y47" s="3">
         <v>6300</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
+      <c r="Z47" s="3">
+        <v>6300</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>8</v>
@@ -3678,96 +3782,102 @@
       <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>297700</v>
+      </c>
+      <c r="E48" s="3">
         <v>287300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>295900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>278300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>276100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>281100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>289600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>281300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>287200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>295200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>304600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>296600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>301100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>304200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>303800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>284400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>282200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>334200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>165900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>144800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>129200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>109700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>98200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>75700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>62500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>52400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E49" s="3">
         <v>900</v>
@@ -3776,13 +3886,13 @@
         <v>900</v>
       </c>
       <c r="G49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H49" s="3">
         <v>600</v>
       </c>
       <c r="I49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
@@ -3803,22 +3913,22 @@
         <v>700</v>
       </c>
       <c r="P49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>700</v>
       </c>
       <c r="R49" s="3">
         <v>700</v>
       </c>
       <c r="S49" s="3">
+        <v>700</v>
+      </c>
+      <c r="T49" s="3">
         <v>400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>700</v>
-      </c>
-      <c r="U49" s="3">
-        <v>400</v>
       </c>
       <c r="V49" s="3">
         <v>400</v>
@@ -3844,8 +3954,11 @@
       <c r="AC49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3927,8 +4040,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4010,8 +4126,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4019,82 +4138,85 @@
         <v>7900</v>
       </c>
       <c r="E52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F52" s="3">
         <v>5600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5900</v>
       </c>
       <c r="G52" s="3">
         <v>5900</v>
       </c>
       <c r="H52" s="3">
-        <v>4700</v>
+        <v>5900</v>
       </c>
       <c r="I52" s="3">
         <v>4700</v>
       </c>
       <c r="J52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K52" s="3">
         <v>4600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4176,91 +4298,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>488400</v>
+      </c>
+      <c r="E54" s="3">
         <v>527500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>547700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>493300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>502800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>515600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>508200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>463200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>482200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>514900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>554700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>506200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>505600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>474100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>518100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>434100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>418900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>295300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>324500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>270400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>249000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>223100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>252900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>181700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>160000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>156000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4290,8 +4418,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4321,105 +4450,109 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E57" s="3">
         <v>56500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>77800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>59200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>57100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>55400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>26700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>25400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>34200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>17300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>30100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>17800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E58" s="3">
         <v>3600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3400</v>
       </c>
       <c r="H58" s="3">
         <v>3400</v>
@@ -4428,387 +4561,399 @@
         <v>3400</v>
       </c>
       <c r="J58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>21800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2400</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>700</v>
       </c>
       <c r="AB58" s="3">
         <v>700</v>
       </c>
       <c r="AC58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E59" s="3">
         <v>58100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>56300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>46000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>38000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>33500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>35200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>26700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>22800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>33200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>32900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>25700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>25300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>25000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E60" s="3">
         <v>118300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>141300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>108200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>116000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>116700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>85700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>110700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>95700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>106300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>84100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>82600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>79800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>95500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>71400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>62700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>52600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>65200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>42800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>69600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>50300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>58800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>37800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>36700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>35100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E61" s="3">
         <v>63300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>64300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>65100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>66000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>66900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>67700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>68600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>69400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>116300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>160700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>141400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>149800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>103500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>156500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>99200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>77500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>67900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>111200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>76900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>35600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>70000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>20200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E62" s="3">
         <v>118600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>123500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>103700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>107200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>110000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>118500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>107000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>110100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>112500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>119000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>113200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>112400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>123100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>113100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>110200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>127900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14700</v>
-      </c>
-      <c r="U62" s="3">
-        <v>5500</v>
       </c>
       <c r="V62" s="3">
         <v>5500</v>
       </c>
       <c r="W62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="X62" s="3">
         <v>5400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4800</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>3700</v>
       </c>
       <c r="AA62" s="3">
         <v>3700</v>
@@ -4817,10 +4962,13 @@
         <v>3700</v>
       </c>
       <c r="AC62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AD62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4902,8 +5050,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4985,8 +5136,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5068,91 +5222,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>261100</v>
+      </c>
+      <c r="E66" s="3">
         <v>297000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>325800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>265700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>278200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>289700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>258800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>287800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>321500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>383700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>336500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>342600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>295800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>364600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>280400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>267800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>135000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>185300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>128500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>113900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>87000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>136800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>65300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>48100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>44800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5182,8 +5342,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5265,8 +5426,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5348,8 +5512,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5431,8 +5598,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5514,91 +5684,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E72" s="3">
         <v>133200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>125700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>131900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>129600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>130900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>113500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>110700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>101700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>101200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>79300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>78400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>72500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>87600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>63200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>63000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>61100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>70600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>50000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>53100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>46700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>48100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>28600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>29400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>25100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>24700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5680,8 +5856,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5763,8 +5942,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5846,91 +6028,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>227300</v>
+      </c>
+      <c r="E76" s="3">
         <v>230400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>221900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>227600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>224600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>225900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>207800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>204400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>194400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>193500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>171100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>169700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>163100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>178300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>153500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>153700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>151100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>160300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>139200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>141900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>135100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>136100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>116100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>116400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>111900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>111200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6012,179 +6200,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44955</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44864</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44682</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44591</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44409</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44318</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44136</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44045</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43954</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43863</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43772</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43681</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43590</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43499</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43401</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43310</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43219</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43128</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43037</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42946</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42764</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>19500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>14000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6214,91 +6411,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E83" s="3">
         <v>7900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7300</v>
       </c>
       <c r="L83" s="3">
         <v>7300</v>
       </c>
       <c r="M83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N83" s="3">
         <v>7900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>4400</v>
       </c>
       <c r="T83" s="3">
         <v>4400</v>
       </c>
       <c r="U83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V83" s="3">
         <v>3100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6380,8 +6581,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6463,8 +6667,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6546,8 +6753,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6629,8 +6839,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6712,91 +6925,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E89" s="3">
         <v>45400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-31700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>59200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>79400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-33500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>56000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-39600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-13100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>54600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-10900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-11000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>64800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-22800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>47000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6826,91 +7045,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-7600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6992,8 +7215,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7075,91 +7301,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E94" s="3">
         <v>1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-13400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-14000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-17300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-18900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7189,8 +7421,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7272,8 +7505,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7355,8 +7591,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7438,8 +7677,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7521,91 +7763,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-700</v>
       </c>
       <c r="I100" s="3">
         <v>-700</v>
       </c>
       <c r="J100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-18300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-44300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>44700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-51500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>45200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>22400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-47300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>29500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>14400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>22000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-51800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>39300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>16400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-15300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7687,87 +7935,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E102" s="3">
         <v>36100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-36700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>57300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-11100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>23900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-23100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLTH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>DLTH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,386 +665,399 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44955</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44864</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44682</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44591</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44409</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44318</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44136</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44045</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43954</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43863</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43772</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43681</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43590</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43499</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43401</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43310</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43219</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43128</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43037</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42946</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42764</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E8" s="3">
         <v>123800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>241800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>147100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>141500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>122900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>270800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>145300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>149100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>133400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>256000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>135500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>137400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>109900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>259600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>119800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>122000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>114200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>250500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>106700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>110700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>100200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>217800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>83700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>86200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>83700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>174700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>67000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E9" s="3">
         <v>58100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>117900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>70200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>65900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>55800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>125100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>61600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>67700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>66900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>120300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>64500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>64900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>57600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>122600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>54400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>57200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>53300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>119300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>45700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>48400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>44300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>101800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>36300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>37300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>35000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>77900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>28300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E10" s="3">
         <v>65700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>123900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>76900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>75600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>67100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>145700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>83700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>81400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>66500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>135700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>71000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>72500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>137000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>65400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>64800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>60900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>131200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>61000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>62300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>55900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>116000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>47400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>48900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>48700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>96800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1088,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1175,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,31 +1264,34 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1288,11 +1308,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1309,8 +1329,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1333,8 +1353,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1372,25 +1395,25 @@
         <v>800</v>
       </c>
       <c r="O15" s="3">
+        <v>800</v>
+      </c>
+      <c r="P15" s="3">
         <v>900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>200</v>
-      </c>
-      <c r="R15" s="3">
-        <v>500</v>
       </c>
       <c r="S15" s="3">
         <v>500</v>
       </c>
       <c r="T15" s="3">
+        <v>500</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1401,8 +1424,8 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1419,8 +1442,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1448,180 +1474,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E17" s="3">
         <v>128300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>231100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>154500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>137600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>123800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>246500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>140400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>136000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>131500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>225400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>127600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>128900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>226500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>118400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>118200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>123900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>220400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>109300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>100800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>100500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>188300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>84300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>78800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>82900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>151800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>30100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>29500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>7400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>22900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1652,8 +1685,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1661,76 +1695,76 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>100</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
@@ -1738,94 +1772,100 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E21" s="3">
         <v>3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>31900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>38000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>39300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>34700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>12700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>32000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>9200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>24400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1836,254 +1876,263 @@
         <v>900</v>
       </c>
       <c r="F22" s="3">
+        <v>900</v>
+      </c>
+      <c r="G22" s="3">
         <v>1000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>900</v>
       </c>
       <c r="H22" s="3">
         <v>900</v>
       </c>
       <c r="I22" s="3">
+        <v>900</v>
+      </c>
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1200</v>
-      </c>
-      <c r="X22" s="3">
-        <v>800</v>
       </c>
       <c r="Y22" s="3">
         <v>800</v>
       </c>
       <c r="Z22" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA22" s="3">
         <v>700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>100</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>31800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>28000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>29000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>7100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>22900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>8800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2168,180 +2217,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>20500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>18100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>14000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>20600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>18000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>14000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2426,8 +2484,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2476,8 +2537,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2494,11 +2555,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>1500</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2512,8 +2573,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2598,8 +2662,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2684,8 +2751,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2693,76 +2763,76 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-100</v>
       </c>
       <c r="AA32" s="3">
         <v>-100</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
@@ -2770,94 +2840,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>19500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>14000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2942,185 +3018,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>19500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>14000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44955</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44864</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44682</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44591</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44409</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44318</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44136</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44045</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43954</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43863</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43772</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43681</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43590</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43499</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43401</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43310</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43219</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43128</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43037</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42946</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42764</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3151,8 +3236,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3183,94 +3269,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E41" s="3">
         <v>9200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>77100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>46600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>2200</v>
       </c>
       <c r="R41" s="3">
         <v>2200</v>
       </c>
       <c r="S41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T41" s="3">
         <v>3500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>13600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>24000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3355,405 +3445,420 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="E43" s="3">
         <v>8400</v>
       </c>
       <c r="F43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G43" s="3">
         <v>10200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>7700</v>
       </c>
       <c r="J43" s="3">
         <v>7700</v>
       </c>
       <c r="K43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L43" s="3">
         <v>4900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>157100</v>
+      </c>
+      <c r="E44" s="3">
         <v>145000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>154900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>204700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>164500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>152200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>122700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>165100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>134900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>144200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>149100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>213400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>167600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>175000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>147800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>183100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>114800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>104300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>97700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>131400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>102400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>98000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>89500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>129500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>84700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>75700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>70400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E45" s="3">
         <v>13900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>11500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>13300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>9500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>5400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>6400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>191800</v>
+      </c>
+      <c r="E46" s="3">
         <v>176500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>225900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>240000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>202500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>214100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>222500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>206600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>169800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>184600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>209700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>242900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>201800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>197000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>162200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>204300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>137500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>126100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>118200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>150200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>116600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>109600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>101800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>145400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>96100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>95900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>101200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E47" s="3">
         <v>5400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>6600</v>
       </c>
       <c r="J47" s="3">
         <v>6600</v>
       </c>
       <c r="K47" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L47" s="3">
         <v>6700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>6000</v>
       </c>
       <c r="O47" s="3">
         <v>6000</v>
       </c>
       <c r="P47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>5700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6200</v>
-      </c>
-      <c r="T47" s="3">
-        <v>6300</v>
       </c>
       <c r="U47" s="3">
         <v>6300</v>
@@ -3773,8 +3878,8 @@
       <c r="Z47" s="3">
         <v>6300</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>8</v>
+      <c r="AA47" s="3">
+        <v>6300</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>8</v>
@@ -3785,94 +3890,100 @@
       <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>297800</v>
+      </c>
+      <c r="E48" s="3">
         <v>297700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>287300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>295900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>278300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>276100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>281100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>289600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>281300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>287200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>295200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>304600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>296600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>301100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>304200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>303800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>284400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>282200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>334200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>165900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>144800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>129200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>109700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>98200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>75700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>62500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>52400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3880,7 +3991,7 @@
         <v>800</v>
       </c>
       <c r="E49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F49" s="3">
         <v>900</v>
@@ -3889,13 +4000,13 @@
         <v>900</v>
       </c>
       <c r="H49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
       </c>
       <c r="J49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
@@ -3916,22 +4027,22 @@
         <v>700</v>
       </c>
       <c r="Q49" s="3">
+        <v>700</v>
+      </c>
+      <c r="R49" s="3">
         <v>1700</v>
-      </c>
-      <c r="R49" s="3">
-        <v>700</v>
       </c>
       <c r="S49" s="3">
         <v>700</v>
       </c>
       <c r="T49" s="3">
+        <v>700</v>
+      </c>
+      <c r="U49" s="3">
         <v>400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>700</v>
-      </c>
-      <c r="V49" s="3">
-        <v>400</v>
       </c>
       <c r="W49" s="3">
         <v>400</v>
@@ -3957,8 +4068,11 @@
       <c r="AD49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4043,8 +4157,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4129,94 +4246,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="E52" s="3">
         <v>7900</v>
       </c>
       <c r="F52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G52" s="3">
         <v>5600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5900</v>
       </c>
       <c r="H52" s="3">
         <v>5900</v>
       </c>
       <c r="I52" s="3">
-        <v>4700</v>
+        <v>5900</v>
       </c>
       <c r="J52" s="3">
         <v>4700</v>
       </c>
       <c r="K52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L52" s="3">
         <v>4600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4301,94 +4424,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>503100</v>
+      </c>
+      <c r="E54" s="3">
         <v>488400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>527500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>547700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>493300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>502800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>515600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>508200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>463200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>482200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>514900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>554700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>506200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>505600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>474100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>518100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>434100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>418900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>295300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>324500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>270400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>249000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>223100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>252900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>181700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>160000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>156000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>155600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4419,8 +4548,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4451,111 +4581,115 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E57" s="3">
         <v>36100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>56500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>77800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>59200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>57100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>55400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>26700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>25400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>34200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>17300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>30100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>17800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>10700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>9300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3400</v>
       </c>
       <c r="I58" s="3">
         <v>3400</v>
@@ -4564,399 +4698,411 @@
         <v>3400</v>
       </c>
       <c r="K58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>21800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2400</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>700</v>
       </c>
       <c r="AC58" s="3">
         <v>700</v>
       </c>
       <c r="AD58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE58" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E59" s="3">
         <v>48100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>50200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>67200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>49800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>56300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>46000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>54500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>38000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>33500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>26700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>30700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>22800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>33200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>32900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>25700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>25300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>25000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E60" s="3">
         <v>87900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>118300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>141300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>108200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>116000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>116700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>110700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>95700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>106300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>84100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>82600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>79800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>95500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>71400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>62700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>52600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>65200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>42800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>69600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>50300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>58800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>37800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>36700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>35100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E61" s="3">
         <v>62400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>63300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>64300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>65100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>66000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>66900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>67700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>68600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>69400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>116300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>160700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>141400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>149800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>103500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>156500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>99200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>77500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>67900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>111200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>76900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>35600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>28000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>70000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>20200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E62" s="3">
         <v>114000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>118600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>123500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>103700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>107200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>110000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>118500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>107000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>110100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>112500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>119000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>113200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>112400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>123100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>113100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>110200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>127900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14700</v>
-      </c>
-      <c r="V62" s="3">
-        <v>5500</v>
       </c>
       <c r="W62" s="3">
         <v>5500</v>
       </c>
       <c r="X62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Y62" s="3">
         <v>5400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4800</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>3700</v>
       </c>
       <c r="AB62" s="3">
         <v>3700</v>
@@ -4965,10 +5111,13 @@
         <v>3700</v>
       </c>
       <c r="AD62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AE62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5053,8 +5202,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5139,8 +5291,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5225,94 +5380,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>276500</v>
+      </c>
+      <c r="E66" s="3">
         <v>261100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>297000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>325800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>265700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>278200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>289700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>258800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>287800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>321500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>383700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>336500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>342600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>295800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>364600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>280400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>267800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>135000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>185300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>128500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>113900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>87000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>136800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>65300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>48100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>44800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5343,8 +5504,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5429,8 +5591,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5515,8 +5680,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5601,8 +5769,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5687,94 +5858,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>127300</v>
+      </c>
+      <c r="E72" s="3">
         <v>129300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>133200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>125700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>131900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>129600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>130900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>113500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>110700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>101700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>101200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>79300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>78400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>72500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>87600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>63200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>63000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>61100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>70600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>50000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>53100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>46700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>48100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>28600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>29400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>25100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>24700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5859,8 +6036,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5945,8 +6125,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6031,94 +6214,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>226700</v>
+      </c>
+      <c r="E76" s="3">
         <v>227300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>230400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>221900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>227600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>224600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>225900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>207800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>204400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>194400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>193500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>171100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>169700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>163100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>178300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>153500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>153700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>151100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>160300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>139200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>141900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>135100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>136100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>116100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>116400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>111900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>111200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6203,185 +6392,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44955</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44864</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44682</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44591</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44409</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44318</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44136</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44045</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43954</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43863</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43772</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43681</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43590</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43499</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43401</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43310</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43219</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43128</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43037</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42946</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42764</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>19500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>14000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6412,94 +6610,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E83" s="3">
         <v>7400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7300</v>
       </c>
       <c r="M83" s="3">
         <v>7300</v>
       </c>
       <c r="N83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O83" s="3">
         <v>7900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>4400</v>
       </c>
       <c r="U83" s="3">
         <v>4400</v>
       </c>
       <c r="V83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="W83" s="3">
         <v>3100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6584,8 +6786,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6670,8 +6875,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6756,8 +6964,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6842,8 +7053,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6928,94 +7142,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>45400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>59200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>79400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>56000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-39600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-13100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>54600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-10900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>64800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-22800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-8600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>47000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7046,94 +7266,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-7600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7218,8 +7442,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7304,94 +7531,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-13400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-17300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-18900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-7900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7422,8 +7655,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7508,8 +7742,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7594,8 +7831,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7680,8 +7920,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7766,94 +8009,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-700</v>
       </c>
       <c r="J100" s="3">
         <v>-700</v>
       </c>
       <c r="K100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L100" s="3">
         <v>-18300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-44300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>44700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-51500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>45200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>22400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-47300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>29500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>14400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>22000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-51800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>39300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>16400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-15300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7938,90 +8187,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>36100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-36700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>57300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>34400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-11100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-10500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>23900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-23100</v>
       </c>
     </row>
